--- a/BackTest/2019-10-28 BackTest ICX.xlsx
+++ b/BackTest/2019-10-28 BackTest ICX.xlsx
@@ -451,17 +451,13 @@
         <v>191</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>191</v>
-      </c>
-      <c r="K2" t="n">
-        <v>191</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>191</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>191</v>
-      </c>
-      <c r="K3" t="n">
-        <v>191</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>191</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>191</v>
-      </c>
-      <c r="K4" t="n">
-        <v>191</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>191</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>191</v>
-      </c>
-      <c r="K5" t="n">
-        <v>191</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>190.6666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>190</v>
-      </c>
-      <c r="K6" t="n">
-        <v>191</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>190.3333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>190</v>
-      </c>
-      <c r="K7" t="n">
-        <v>191</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>190</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>190</v>
-      </c>
-      <c r="K8" t="n">
-        <v>190</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>190</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>190</v>
-      </c>
-      <c r="K9" t="n">
-        <v>190</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>190.3333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>191</v>
-      </c>
-      <c r="K10" t="n">
-        <v>190</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,17 +766,13 @@
         <v>190.6666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>191</v>
-      </c>
-      <c r="K11" t="n">
-        <v>191</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -865,22 +801,14 @@
         <v>191.3333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>192</v>
-      </c>
-      <c r="K12" t="n">
-        <v>191</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -908,22 +836,14 @@
         <v>191.3333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>191</v>
-      </c>
-      <c r="K13" t="n">
-        <v>191</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,22 +871,14 @@
         <v>191</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>191</v>
-      </c>
-      <c r="K14" t="n">
-        <v>191</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -994,22 +906,14 @@
         <v>191</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>191</v>
-      </c>
-      <c r="K15" t="n">
-        <v>191</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1037,22 +941,14 @@
         <v>191.3333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>192</v>
-      </c>
-      <c r="K16" t="n">
-        <v>191</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1080,22 +976,14 @@
         <v>192</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>192</v>
-      </c>
-      <c r="K17" t="n">
-        <v>191</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1123,22 +1011,14 @@
         <v>192.3333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>193</v>
-      </c>
-      <c r="K18" t="n">
-        <v>191</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1166,22 +1046,14 @@
         <v>193</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>193</v>
-      </c>
-      <c r="K19" t="n">
-        <v>191</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1212,17 +1084,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>191</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1253,17 +1119,11 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>191</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1294,17 +1154,11 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>191</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1335,17 +1189,11 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>191</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1376,17 +1224,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>191</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1417,19 +1259,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>191</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>1.010706806282723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1458,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1528,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1563,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1598,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1633,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1668,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1703,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1738,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1773,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -3240,13 +3076,17 @@
         <v>190</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>190</v>
+      </c>
+      <c r="K77" t="n">
+        <v>190</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3275,14 +3115,22 @@
         <v>190</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>190</v>
+      </c>
+      <c r="K78" t="n">
+        <v>190</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3310,14 +3158,22 @@
         <v>190</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>190</v>
+      </c>
+      <c r="K79" t="n">
+        <v>190</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3345,14 +3201,22 @@
         <v>189.6666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>190</v>
+      </c>
+      <c r="K80" t="n">
+        <v>190</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3386,8 +3250,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>190</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3421,8 +3291,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>190</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3456,8 +3332,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>190</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3491,8 +3373,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>190</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3520,14 +3408,22 @@
         <v>189.6666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>190</v>
+      </c>
+      <c r="K85" t="n">
+        <v>190</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3555,14 +3451,22 @@
         <v>190</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>190</v>
+      </c>
+      <c r="K86" t="n">
+        <v>190</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3590,14 +3494,22 @@
         <v>190.3333333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>190</v>
+      </c>
+      <c r="K87" t="n">
+        <v>190</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3625,14 +3537,22 @@
         <v>190.6666666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>191</v>
+      </c>
+      <c r="K88" t="n">
+        <v>190</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3660,14 +3580,22 @@
         <v>191</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>191</v>
+      </c>
+      <c r="K89" t="n">
+        <v>190</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3695,14 +3623,22 @@
         <v>191</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>191</v>
+      </c>
+      <c r="K90" t="n">
+        <v>190</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3736,8 +3672,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>190</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3771,8 +3713,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>190</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3806,8 +3754,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>190</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3841,8 +3795,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>190</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3876,8 +3836,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>190</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3911,8 +3877,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>190</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3946,8 +3918,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>190</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3981,8 +3959,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>190</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4016,8 +4000,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>190</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4041,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>190</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4086,8 +4082,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>190</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4121,8 +4123,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>190</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4156,8 +4164,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>190</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4191,8 +4205,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>190</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4226,8 +4246,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>190</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4261,8 +4287,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>190</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4296,8 +4328,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>190</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4331,8 +4369,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>190</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4366,8 +4410,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>190</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4401,8 +4451,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>190</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4436,8 +4492,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>190</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4471,8 +4533,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>190</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4506,8 +4574,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>190</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4541,8 +4615,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>190</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4576,8 +4656,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>190</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4611,8 +4697,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>190</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4646,8 +4738,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>190</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4681,8 +4779,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>190</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4716,8 +4820,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>190</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4751,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>190</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4786,8 +4902,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>190</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4815,18 +4937,20 @@
         <v>189.6666666666667</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>190</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
         <v>190</v>
       </c>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4854,20 +4978,18 @@
         <v>190</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>190</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
         <v>190</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -4897,20 +5019,18 @@
         <v>189.3333333333333</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>188</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
         <v>190</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -4940,18 +5060,20 @@
         <v>189.3333333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>190</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>190</v>
       </c>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4979,20 +5101,18 @@
         <v>189.3333333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>190</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
         <v>190</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -5022,20 +5142,18 @@
         <v>190</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>190</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
         <v>190</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -5065,18 +5183,20 @@
         <v>190</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>190</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
         <v>190</v>
       </c>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5104,20 +5224,18 @@
         <v>190</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>190</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
         <v>190</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -5147,20 +5265,18 @@
         <v>190</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>190</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
         <v>190</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -5190,18 +5306,20 @@
         <v>189.6666666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>189</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>189</v>
-      </c>
-      <c r="L131" t="inlineStr"/>
+        <v>190</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5229,20 +5347,18 @@
         <v>189.6666666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>190</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -5272,20 +5388,18 @@
         <v>189.6666666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>190</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -5315,20 +5429,18 @@
         <v>190.3333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>190</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -5358,16 +5470,14 @@
         <v>190.6666666666667</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>191</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5401,16 +5511,14 @@
         <v>191</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>191</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5444,16 +5552,14 @@
         <v>191.6666666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>191</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5487,16 +5593,14 @@
         <v>193.3333333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>193</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5530,16 +5634,14 @@
         <v>194.6666666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>195</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5580,7 +5682,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5621,7 +5723,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5662,7 +5764,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5703,7 +5805,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5744,7 +5846,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5785,7 +5887,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5826,7 +5928,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5867,7 +5969,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5908,7 +6010,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5949,7 +6051,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5990,7 +6092,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6027,19 +6129,19 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>1</v>
+        <v>1.037105263157895</v>
       </c>
     </row>
     <row r="152">
@@ -6068,17 +6170,11 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>189</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6109,17 +6205,11 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>189</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6150,17 +6240,11 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>189</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6191,17 +6275,11 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>189</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6232,17 +6310,11 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>189</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6273,17 +6345,11 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>189</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6314,17 +6380,11 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>189</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6355,17 +6415,11 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>189</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6396,17 +6450,11 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>189</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6437,17 +6485,11 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>189</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6478,17 +6520,11 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>189</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6519,17 +6555,11 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>189</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6563,14 +6593,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>189</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6604,14 +6628,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>189</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6645,14 +6663,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>189</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6686,14 +6698,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>189</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6727,14 +6733,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>189</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6768,14 +6768,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>189</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6809,14 +6803,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>189</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6850,14 +6838,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>189</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6891,14 +6873,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>189</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6932,14 +6908,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>189</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6973,14 +6943,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>189</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7014,14 +6978,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>189</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7055,14 +7013,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>189</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +7048,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>189</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7137,14 +7083,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>189</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7178,14 +7118,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>189</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7219,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>189</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7260,14 +7188,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>189</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7301,14 +7223,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>189</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7342,14 +7258,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>189</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7383,14 +7293,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>189</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7424,14 +7328,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>189</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7465,14 +7363,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>189</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7506,14 +7398,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>189</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7547,14 +7433,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>189</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7588,14 +7468,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>189</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7629,14 +7503,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>189</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7670,14 +7538,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>189</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7711,14 +7573,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>189</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7752,14 +7608,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>189</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7793,14 +7643,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>189</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7834,14 +7678,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>189</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7875,14 +7713,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>189</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7916,14 +7748,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>189</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7957,14 +7783,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>189</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7998,14 +7818,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>189</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8039,14 +7853,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>189</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8080,14 +7888,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>189</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8121,14 +7923,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>189</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8162,14 +7958,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>189</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8203,14 +7993,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>189</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8244,14 +8028,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>189</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8285,14 +8063,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>189</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8326,14 +8098,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>189</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8367,14 +8133,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>189</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8408,14 +8168,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>189</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8449,14 +8203,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>189</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8490,14 +8238,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>189</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8531,14 +8273,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>189</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8572,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>189</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8613,14 +8343,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>189</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8654,14 +8378,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>189</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +8413,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>189</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8736,14 +8448,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>189</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8777,14 +8483,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>189</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8818,14 +8518,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>189</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8859,14 +8553,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>189</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8900,14 +8588,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>189</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8941,14 +8623,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>189</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8982,14 +8658,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>189</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9023,14 +8693,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>189</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9064,14 +8728,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>189</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9105,14 +8763,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>189</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9146,14 +8798,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>189</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9187,14 +8833,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>189</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9228,14 +8868,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>189</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9269,14 +8903,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>189</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9310,14 +8938,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>189</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9351,14 +8973,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>189</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9392,14 +9008,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>189</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9433,14 +9043,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>189</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest ICX.xlsx
+++ b/BackTest/2019-10-28 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>191</v>
       </c>
       <c r="F2" t="n">
-        <v>250.4246</v>
+        <v>107.499</v>
       </c>
       <c r="G2" t="n">
-        <v>191</v>
+        <v>186.9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>191</v>
       </c>
       <c r="F3" t="n">
-        <v>2184.7893</v>
+        <v>250.4246</v>
       </c>
       <c r="G3" t="n">
-        <v>191</v>
+        <v>187.1166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>191</v>
       </c>
       <c r="F4" t="n">
-        <v>2030.451</v>
+        <v>2184.7893</v>
       </c>
       <c r="G4" t="n">
-        <v>191</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>191</v>
       </c>
       <c r="F5" t="n">
-        <v>1016.2602</v>
+        <v>2030.451</v>
       </c>
       <c r="G5" t="n">
-        <v>191</v>
+        <v>187.5166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D6" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F6" t="n">
-        <v>7.121</v>
+        <v>1016.2602</v>
       </c>
       <c r="G6" t="n">
-        <v>190.6666666666667</v>
+        <v>187.6833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>190</v>
       </c>
       <c r="F7" t="n">
-        <v>113.9866</v>
+        <v>7.121</v>
       </c>
       <c r="G7" t="n">
-        <v>190.3333333333333</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>190</v>
       </c>
       <c r="F8" t="n">
-        <v>470</v>
+        <v>113.9866</v>
       </c>
       <c r="G8" t="n">
-        <v>190</v>
+        <v>187.9666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>190</v>
       </c>
       <c r="F9" t="n">
-        <v>1052.63</v>
+        <v>470</v>
       </c>
       <c r="G9" t="n">
-        <v>190</v>
+        <v>188.0666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" t="n">
-        <v>13206.446</v>
+        <v>1052.63</v>
       </c>
       <c r="G10" t="n">
-        <v>190.3333333333333</v>
+        <v>188.15</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>191</v>
       </c>
       <c r="F11" t="n">
-        <v>2934</v>
+        <v>13206.446</v>
       </c>
       <c r="G11" t="n">
-        <v>190.6666666666667</v>
+        <v>188.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" t="n">
-        <v>12.6145</v>
+        <v>2934</v>
       </c>
       <c r="G12" t="n">
-        <v>191.3333333333333</v>
+        <v>188.25</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C13" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D13" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E13" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F13" t="n">
-        <v>4570.2242</v>
+        <v>12.6145</v>
       </c>
       <c r="G13" t="n">
-        <v>191.3333333333333</v>
+        <v>188.3166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>191</v>
       </c>
       <c r="C14" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D14" t="n">
         <v>191</v>
       </c>
       <c r="E14" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F14" t="n">
-        <v>9640.8462</v>
+        <v>4570.2242</v>
       </c>
       <c r="G14" t="n">
-        <v>191</v>
+        <v>188.35</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>191</v>
       </c>
       <c r="C15" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D15" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" t="n">
-        <v>3393.12</v>
+        <v>9640.8462</v>
       </c>
       <c r="G15" t="n">
-        <v>191</v>
+        <v>188.35</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" t="n">
         <v>192</v>
@@ -932,13 +932,13 @@
         <v>192</v>
       </c>
       <c r="E16" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F16" t="n">
-        <v>1750</v>
+        <v>3393.12</v>
       </c>
       <c r="G16" t="n">
-        <v>191.3333333333333</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>192</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5782</v>
+        <v>1750</v>
       </c>
       <c r="G17" t="n">
-        <v>192</v>
+        <v>188.4166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E18" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" t="n">
-        <v>2482.0714</v>
+        <v>0.5782</v>
       </c>
       <c r="G18" t="n">
-        <v>192.3333333333333</v>
+        <v>188.45</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>193</v>
       </c>
       <c r="C19" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" t="n">
         <v>193</v>
       </c>
       <c r="F19" t="n">
-        <v>1980</v>
+        <v>2482.0714</v>
       </c>
       <c r="G19" t="n">
-        <v>193</v>
+        <v>188.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" t="n">
         <v>194</v>
@@ -1072,13 +1072,13 @@
         <v>194</v>
       </c>
       <c r="E20" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" t="n">
-        <v>159.7397</v>
+        <v>1980</v>
       </c>
       <c r="G20" t="n">
-        <v>193.6666666666667</v>
+        <v>188.6166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>194</v>
       </c>
       <c r="F21" t="n">
-        <v>1687.8876</v>
+        <v>159.7397</v>
       </c>
       <c r="G21" t="n">
-        <v>194</v>
+        <v>188.6833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>194</v>
       </c>
       <c r="F22" t="n">
-        <v>458.0896</v>
+        <v>1687.8876</v>
       </c>
       <c r="G22" t="n">
-        <v>194</v>
+        <v>188.8166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1180,16 +1180,16 @@
         <v>194</v>
       </c>
       <c r="F23" t="n">
-        <v>1534.6998</v>
+        <v>458.0896</v>
       </c>
       <c r="G23" t="n">
-        <v>194</v>
+        <v>188.9333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1215,16 +1215,16 @@
         <v>194</v>
       </c>
       <c r="F24" t="n">
-        <v>94.7132</v>
+        <v>1534.6998</v>
       </c>
       <c r="G24" t="n">
-        <v>194</v>
+        <v>189.0666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1250,16 +1250,16 @@
         <v>194</v>
       </c>
       <c r="F25" t="n">
-        <v>771.7487</v>
+        <v>94.7132</v>
       </c>
       <c r="G25" t="n">
-        <v>194</v>
+        <v>189.2166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1285,16 +1285,16 @@
         <v>194</v>
       </c>
       <c r="F26" t="n">
-        <v>4056.2886</v>
+        <v>771.7487</v>
       </c>
       <c r="G26" t="n">
-        <v>194</v>
+        <v>189.3666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1320,16 +1320,16 @@
         <v>194</v>
       </c>
       <c r="F27" t="n">
-        <v>1509.1261</v>
+        <v>4056.2886</v>
       </c>
       <c r="G27" t="n">
-        <v>194</v>
+        <v>189.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1355,16 +1355,16 @@
         <v>194</v>
       </c>
       <c r="F28" t="n">
-        <v>5084.2708</v>
+        <v>1509.1261</v>
       </c>
       <c r="G28" t="n">
-        <v>194</v>
+        <v>189.6333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
         <v>194</v>
       </c>
       <c r="F29" t="n">
-        <v>544.4956</v>
+        <v>5084.2708</v>
       </c>
       <c r="G29" t="n">
-        <v>194</v>
+        <v>189.7666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E30" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F30" t="n">
-        <v>2550.3048</v>
+        <v>544.4956</v>
       </c>
       <c r="G30" t="n">
-        <v>194.3333333333333</v>
+        <v>189.9166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C31" t="n">
         <v>195</v>
       </c>
       <c r="D31" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E31" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F31" t="n">
-        <v>12426.2519</v>
+        <v>2550.3048</v>
       </c>
       <c r="G31" t="n">
-        <v>194.6666666666667</v>
+        <v>190.0666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C32" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D32" t="n">
         <v>196</v>
       </c>
       <c r="E32" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>12426.2519</v>
       </c>
       <c r="G32" t="n">
-        <v>195.3333333333333</v>
+        <v>190.2166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C33" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D33" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E33" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F33" t="n">
-        <v>15.7474</v>
+        <v>16</v>
       </c>
       <c r="G33" t="n">
-        <v>195.3333333333333</v>
+        <v>190.3333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,28 +1553,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C34" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D34" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E34" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F34" t="n">
-        <v>544.4956</v>
+        <v>15.7474</v>
       </c>
       <c r="G34" t="n">
-        <v>194.6666666666667</v>
+        <v>190.4666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D35" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E35" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F35" t="n">
-        <v>44</v>
+        <v>544.4956</v>
       </c>
       <c r="G35" t="n">
-        <v>194</v>
+        <v>190.5666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C36" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D36" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E36" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F36" t="n">
-        <v>5512.9735</v>
+        <v>44</v>
       </c>
       <c r="G36" t="n">
-        <v>193.3333333333333</v>
+        <v>190.6833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>193</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>5512.9735</v>
       </c>
       <c r="G37" t="n">
-        <v>193.3333333333333</v>
+        <v>190.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C38" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D38" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E38" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F38" t="n">
-        <v>544.4956</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>193.6666666666667</v>
+        <v>190.9333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C39" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D39" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E39" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F39" t="n">
-        <v>587.3063</v>
+        <v>544.4956</v>
       </c>
       <c r="G39" t="n">
-        <v>194.6666666666667</v>
+        <v>191.0833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C40" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D40" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E40" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>587.3063</v>
       </c>
       <c r="G40" t="n">
-        <v>195</v>
+        <v>191.25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C41" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D41" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E41" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F41" t="n">
-        <v>50.0169</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>194.3333333333333</v>
+        <v>191.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>193</v>
       </c>
       <c r="F42" t="n">
-        <v>5053.4723</v>
+        <v>50.0169</v>
       </c>
       <c r="G42" t="n">
-        <v>193.3333333333333</v>
+        <v>191.4833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C43" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D43" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E43" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>5053.4723</v>
       </c>
       <c r="G43" t="n">
-        <v>193.6666666666667</v>
+        <v>191.5833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E44" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F44" t="n">
-        <v>945.7408</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>194.6666666666667</v>
+        <v>191.7166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C45" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D45" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E45" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F45" t="n">
-        <v>1610.4443</v>
+        <v>945.7408</v>
       </c>
       <c r="G45" t="n">
-        <v>195.3333333333333</v>
+        <v>191.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C46" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D46" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E46" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F46" t="n">
-        <v>15144.5317</v>
+        <v>1610.4443</v>
       </c>
       <c r="G46" t="n">
-        <v>194.3333333333333</v>
+        <v>192.0166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C47" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D47" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E47" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F47" t="n">
-        <v>430.261</v>
+        <v>15144.5317</v>
       </c>
       <c r="G47" t="n">
-        <v>193.6666666666667</v>
+        <v>192.0833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D48" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E48" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F48" t="n">
-        <v>2058.7605</v>
+        <v>430.261</v>
       </c>
       <c r="G48" t="n">
-        <v>193.6666666666667</v>
+        <v>192.1666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C49" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D49" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E49" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F49" t="n">
-        <v>997.5</v>
+        <v>2058.7605</v>
       </c>
       <c r="G49" t="n">
-        <v>193.6666666666667</v>
+        <v>192.2666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D50" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E50" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>997.5</v>
       </c>
       <c r="G50" t="n">
-        <v>193.6666666666667</v>
+        <v>192.3166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>194</v>
       </c>
       <c r="F51" t="n">
-        <v>1144</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>193.3333333333333</v>
+        <v>192.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>194</v>
       </c>
       <c r="F52" t="n">
-        <v>17.5192</v>
+        <v>1144</v>
       </c>
       <c r="G52" t="n">
-        <v>194</v>
+        <v>192.4833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>194</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>17.5192</v>
       </c>
       <c r="G53" t="n">
-        <v>194</v>
+        <v>192.5666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>194</v>
       </c>
       <c r="F54" t="n">
-        <v>938.8396</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>194</v>
+        <v>192.65</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>194</v>
       </c>
       <c r="F55" t="n">
-        <v>934.8396</v>
+        <v>938.8396</v>
       </c>
       <c r="G55" t="n">
-        <v>194</v>
+        <v>192.75</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C56" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D56" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E56" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F56" t="n">
-        <v>13508.4071</v>
+        <v>934.8396</v>
       </c>
       <c r="G56" t="n">
-        <v>193.3333333333333</v>
+        <v>192.85</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C57" t="n">
         <v>192</v>
       </c>
       <c r="D57" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E57" t="n">
         <v>192</v>
       </c>
       <c r="F57" t="n">
-        <v>768809.1152999999</v>
+        <v>13508.4071</v>
       </c>
       <c r="G57" t="n">
-        <v>192.6666666666667</v>
+        <v>192.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>192</v>
       </c>
       <c r="C58" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D58" t="n">
         <v>192</v>
       </c>
       <c r="E58" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F58" t="n">
-        <v>485995.8227</v>
+        <v>768809.1152999999</v>
       </c>
       <c r="G58" t="n">
-        <v>191.3333333333333</v>
+        <v>192.9333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C59" t="n">
         <v>190</v>
       </c>
       <c r="D59" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E59" t="n">
         <v>190</v>
       </c>
       <c r="F59" t="n">
-        <v>2590000</v>
+        <v>485995.8227</v>
       </c>
       <c r="G59" t="n">
-        <v>190.6666666666667</v>
+        <v>192.9333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>190</v>
       </c>
       <c r="F60" t="n">
-        <v>1740000</v>
+        <v>2590000</v>
       </c>
       <c r="G60" t="n">
-        <v>190</v>
+        <v>192.9333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" t="n">
         <v>190</v>
       </c>
       <c r="D61" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E61" t="n">
         <v>190</v>
       </c>
       <c r="F61" t="n">
-        <v>1881073.2774</v>
+        <v>1740000</v>
       </c>
       <c r="G61" t="n">
-        <v>190</v>
+        <v>192.9166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C62" t="n">
         <v>190</v>
       </c>
       <c r="D62" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E62" t="n">
         <v>190</v>
       </c>
       <c r="F62" t="n">
-        <v>2590000</v>
+        <v>1881073.2774</v>
       </c>
       <c r="G62" t="n">
-        <v>190</v>
+        <v>192.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>190</v>
       </c>
       <c r="F63" t="n">
-        <v>2620298.0358</v>
+        <v>2590000</v>
       </c>
       <c r="G63" t="n">
-        <v>190</v>
+        <v>192.8833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>190</v>
       </c>
       <c r="F64" t="n">
-        <v>2659701.9642</v>
+        <v>2620298.0358</v>
       </c>
       <c r="G64" t="n">
-        <v>190</v>
+        <v>192.8666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>190</v>
       </c>
       <c r="F65" t="n">
-        <v>2630408.0358</v>
+        <v>2659701.9642</v>
       </c>
       <c r="G65" t="n">
-        <v>190</v>
+        <v>192.85</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>190</v>
       </c>
       <c r="F66" t="n">
-        <v>2600000</v>
+        <v>2630408.0358</v>
       </c>
       <c r="G66" t="n">
-        <v>190</v>
+        <v>192.8333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>190</v>
       </c>
       <c r="F67" t="n">
-        <v>2619801.4392</v>
+        <v>2600000</v>
       </c>
       <c r="G67" t="n">
-        <v>190</v>
+        <v>192.8333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>190</v>
       </c>
       <c r="F68" t="n">
-        <v>2650208.5608</v>
+        <v>2619801.4392</v>
       </c>
       <c r="G68" t="n">
-        <v>190</v>
+        <v>192.8333333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>190</v>
       </c>
       <c r="F69" t="n">
-        <v>2630000</v>
+        <v>2650208.5608</v>
       </c>
       <c r="G69" t="n">
-        <v>190</v>
+        <v>192.8333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>190</v>
       </c>
       <c r="F70" t="n">
-        <v>2629791.4392</v>
+        <v>2630000</v>
       </c>
       <c r="G70" t="n">
-        <v>190</v>
+        <v>192.8333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>190</v>
       </c>
       <c r="F71" t="n">
-        <v>2600208.5608</v>
+        <v>2629791.4392</v>
       </c>
       <c r="G71" t="n">
-        <v>190</v>
+        <v>192.8166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>190</v>
       </c>
       <c r="F72" t="n">
-        <v>2660000</v>
+        <v>2600208.5608</v>
       </c>
       <c r="G72" t="n">
-        <v>190</v>
+        <v>192.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>190</v>
       </c>
       <c r="F73" t="n">
-        <v>2630768.4105</v>
+        <v>2660000</v>
       </c>
       <c r="G73" t="n">
-        <v>190</v>
+        <v>192.7666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>190</v>
       </c>
       <c r="F74" t="n">
-        <v>2649023.0287</v>
+        <v>2630768.4105</v>
       </c>
       <c r="G74" t="n">
-        <v>190</v>
+        <v>192.75</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>190</v>
       </c>
       <c r="F75" t="n">
-        <v>1950976.9713</v>
+        <v>2649023.0287</v>
       </c>
       <c r="G75" t="n">
-        <v>190</v>
+        <v>192.75</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>190</v>
       </c>
       <c r="F76" t="n">
-        <v>372754.3295</v>
+        <v>1950976.9713</v>
       </c>
       <c r="G76" t="n">
-        <v>190</v>
+        <v>192.7166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,23 +3070,19 @@
         <v>190</v>
       </c>
       <c r="F77" t="n">
-        <v>2640000</v>
+        <v>372754.3295</v>
       </c>
       <c r="G77" t="n">
-        <v>190</v>
+        <v>192.6833333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>190</v>
-      </c>
-      <c r="K77" t="n">
-        <v>190</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3109,823 +3105,695 @@
         <v>190</v>
       </c>
       <c r="F78" t="n">
+        <v>2640000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>192.65</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>190</v>
+      </c>
+      <c r="C79" t="n">
+        <v>190</v>
+      </c>
+      <c r="D79" t="n">
+        <v>190</v>
+      </c>
+      <c r="E79" t="n">
+        <v>190</v>
+      </c>
+      <c r="F79" t="n">
         <v>2652114.5</v>
       </c>
-      <c r="G78" t="n">
-        <v>190</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>190</v>
-      </c>
-      <c r="K78" t="n">
-        <v>190</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G79" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>190</v>
+      </c>
+      <c r="C80" t="n">
+        <v>190</v>
+      </c>
+      <c r="D80" t="n">
+        <v>190</v>
+      </c>
+      <c r="E80" t="n">
+        <v>189</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1024839.3923</v>
+      </c>
+      <c r="G80" t="n">
+        <v>192.5333333333333</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>190</v>
+      </c>
+      <c r="C81" t="n">
+        <v>189</v>
+      </c>
+      <c r="D81" t="n">
+        <v>190</v>
+      </c>
+      <c r="E81" t="n">
+        <v>189</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2215333.218</v>
+      </c>
+      <c r="G81" t="n">
+        <v>192.45</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>189</v>
+      </c>
+      <c r="C82" t="n">
+        <v>189</v>
+      </c>
+      <c r="D82" t="n">
+        <v>189</v>
+      </c>
+      <c r="E82" t="n">
+        <v>189</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2654666.782</v>
+      </c>
+      <c r="G82" t="n">
+        <v>192.3666666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>189</v>
+      </c>
+      <c r="C83" t="n">
+        <v>189</v>
+      </c>
+      <c r="D83" t="n">
+        <v>189</v>
+      </c>
+      <c r="E83" t="n">
+        <v>189</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2675333.218</v>
+      </c>
+      <c r="G83" t="n">
+        <v>192.2833333333333</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>189</v>
+      </c>
+      <c r="C84" t="n">
+        <v>189</v>
+      </c>
+      <c r="D84" t="n">
+        <v>189</v>
+      </c>
+      <c r="E84" t="n">
+        <v>189</v>
+      </c>
+      <c r="F84" t="n">
+        <v>654666.782</v>
+      </c>
+      <c r="G84" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>190</v>
+      </c>
+      <c r="C85" t="n">
+        <v>190</v>
+      </c>
+      <c r="D85" t="n">
+        <v>190</v>
+      </c>
+      <c r="E85" t="n">
+        <v>190</v>
+      </c>
+      <c r="F85" t="n">
+        <v>487282</v>
+      </c>
+      <c r="G85" t="n">
+        <v>192.1333333333333</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>190</v>
+      </c>
+      <c r="C86" t="n">
+        <v>190</v>
+      </c>
+      <c r="D86" t="n">
+        <v>190</v>
+      </c>
+      <c r="E86" t="n">
+        <v>190</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2408828</v>
+      </c>
+      <c r="G86" t="n">
+        <v>192.0666666666667</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>190</v>
+      </c>
+      <c r="C87" t="n">
+        <v>190</v>
+      </c>
+      <c r="D87" t="n">
+        <v>192</v>
+      </c>
+      <c r="E87" t="n">
+        <v>190</v>
+      </c>
+      <c r="F87" t="n">
+        <v>775851.6237</v>
+      </c>
+      <c r="G87" t="n">
+        <v>192</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>191</v>
+      </c>
+      <c r="C88" t="n">
+        <v>191</v>
+      </c>
+      <c r="D88" t="n">
+        <v>191</v>
+      </c>
+      <c r="E88" t="n">
+        <v>191</v>
+      </c>
+      <c r="F88" t="n">
+        <v>972344.9318</v>
+      </c>
+      <c r="G88" t="n">
+        <v>191.95</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>191</v>
+      </c>
+      <c r="C89" t="n">
+        <v>191</v>
+      </c>
+      <c r="D89" t="n">
+        <v>191</v>
+      </c>
+      <c r="E89" t="n">
+        <v>191</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1782200</v>
+      </c>
+      <c r="G89" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>191</v>
+      </c>
+      <c r="C90" t="n">
+        <v>191</v>
+      </c>
+      <c r="D90" t="n">
+        <v>192</v>
+      </c>
+      <c r="E90" t="n">
+        <v>191</v>
+      </c>
+      <c r="F90" t="n">
+        <v>445200</v>
+      </c>
+      <c r="G90" t="n">
+        <v>191.85</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>191</v>
+      </c>
+      <c r="C91" t="n">
+        <v>191</v>
+      </c>
+      <c r="D91" t="n">
+        <v>191</v>
+      </c>
+      <c r="E91" t="n">
+        <v>191</v>
+      </c>
+      <c r="F91" t="n">
+        <v>777617.7275</v>
+      </c>
+      <c r="G91" t="n">
+        <v>191.7833333333333</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>191</v>
+      </c>
+      <c r="C92" t="n">
+        <v>191</v>
+      </c>
+      <c r="D92" t="n">
+        <v>191</v>
+      </c>
+      <c r="E92" t="n">
+        <v>191</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1944305</v>
+      </c>
+      <c r="G92" t="n">
+        <v>191.7166666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>191</v>
+      </c>
+      <c r="C93" t="n">
+        <v>190</v>
+      </c>
+      <c r="D93" t="n">
+        <v>191</v>
+      </c>
+      <c r="E93" t="n">
+        <v>190</v>
+      </c>
+      <c r="F93" t="n">
+        <v>912066</v>
+      </c>
+      <c r="G93" t="n">
+        <v>191.6166666666667</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>190</v>
+      </c>
+      <c r="C94" t="n">
+        <v>190</v>
+      </c>
+      <c r="D94" t="n">
+        <v>190</v>
+      </c>
+      <c r="E94" t="n">
+        <v>190</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2650000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>191.5333333333333</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>190</v>
+      </c>
+      <c r="C95" t="n">
+        <v>191</v>
+      </c>
+      <c r="D95" t="n">
+        <v>191</v>
+      </c>
+      <c r="E95" t="n">
+        <v>190</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1673790.7751</v>
+      </c>
+      <c r="G95" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>191</v>
+      </c>
+      <c r="C96" t="n">
+        <v>191</v>
+      </c>
+      <c r="D96" t="n">
+        <v>191</v>
+      </c>
+      <c r="E96" t="n">
+        <v>191</v>
+      </c>
+      <c r="F96" t="n">
+        <v>995072.5968000001</v>
+      </c>
+      <c r="G96" t="n">
+        <v>191.45</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>191</v>
+      </c>
+      <c r="K96" t="n">
+        <v>191</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>191</v>
+      </c>
+      <c r="C97" t="n">
+        <v>191</v>
+      </c>
+      <c r="D97" t="n">
+        <v>191</v>
+      </c>
+      <c r="E97" t="n">
+        <v>191</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1572096</v>
+      </c>
+      <c r="G97" t="n">
+        <v>191.4166666666667</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>191</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>190</v>
-      </c>
-      <c r="C79" t="n">
-        <v>190</v>
-      </c>
-      <c r="D79" t="n">
-        <v>190</v>
-      </c>
-      <c r="E79" t="n">
-        <v>189</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1024839.3923</v>
-      </c>
-      <c r="G79" t="n">
-        <v>190</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>190</v>
-      </c>
-      <c r="K79" t="n">
-        <v>190</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>190</v>
-      </c>
-      <c r="C80" t="n">
-        <v>189</v>
-      </c>
-      <c r="D80" t="n">
-        <v>190</v>
-      </c>
-      <c r="E80" t="n">
-        <v>189</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2215333.218</v>
-      </c>
-      <c r="G80" t="n">
-        <v>189.6666666666667</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>190</v>
-      </c>
-      <c r="K80" t="n">
-        <v>190</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>189</v>
-      </c>
-      <c r="C81" t="n">
-        <v>189</v>
-      </c>
-      <c r="D81" t="n">
-        <v>189</v>
-      </c>
-      <c r="E81" t="n">
-        <v>189</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2654666.782</v>
-      </c>
-      <c r="G81" t="n">
-        <v>189.3333333333333</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>190</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>189</v>
-      </c>
-      <c r="C82" t="n">
-        <v>189</v>
-      </c>
-      <c r="D82" t="n">
-        <v>189</v>
-      </c>
-      <c r="E82" t="n">
-        <v>189</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2675333.218</v>
-      </c>
-      <c r="G82" t="n">
-        <v>189</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>190</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>189</v>
-      </c>
-      <c r="C83" t="n">
-        <v>189</v>
-      </c>
-      <c r="D83" t="n">
-        <v>189</v>
-      </c>
-      <c r="E83" t="n">
-        <v>189</v>
-      </c>
-      <c r="F83" t="n">
-        <v>654666.782</v>
-      </c>
-      <c r="G83" t="n">
-        <v>189</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>190</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>190</v>
-      </c>
-      <c r="C84" t="n">
-        <v>190</v>
-      </c>
-      <c r="D84" t="n">
-        <v>190</v>
-      </c>
-      <c r="E84" t="n">
-        <v>190</v>
-      </c>
-      <c r="F84" t="n">
-        <v>487282</v>
-      </c>
-      <c r="G84" t="n">
-        <v>189.3333333333333</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>190</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>190</v>
-      </c>
-      <c r="C85" t="n">
-        <v>190</v>
-      </c>
-      <c r="D85" t="n">
-        <v>190</v>
-      </c>
-      <c r="E85" t="n">
-        <v>190</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2408828</v>
-      </c>
-      <c r="G85" t="n">
-        <v>189.6666666666667</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>190</v>
-      </c>
-      <c r="K85" t="n">
-        <v>190</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>190</v>
-      </c>
-      <c r="C86" t="n">
-        <v>190</v>
-      </c>
-      <c r="D86" t="n">
-        <v>192</v>
-      </c>
-      <c r="E86" t="n">
-        <v>190</v>
-      </c>
-      <c r="F86" t="n">
-        <v>775851.6237</v>
-      </c>
-      <c r="G86" t="n">
-        <v>190</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>190</v>
-      </c>
-      <c r="K86" t="n">
-        <v>190</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>191</v>
-      </c>
-      <c r="C87" t="n">
-        <v>191</v>
-      </c>
-      <c r="D87" t="n">
-        <v>191</v>
-      </c>
-      <c r="E87" t="n">
-        <v>191</v>
-      </c>
-      <c r="F87" t="n">
-        <v>972344.9318</v>
-      </c>
-      <c r="G87" t="n">
-        <v>190.3333333333333</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>190</v>
-      </c>
-      <c r="K87" t="n">
-        <v>190</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>191</v>
-      </c>
-      <c r="C88" t="n">
-        <v>191</v>
-      </c>
-      <c r="D88" t="n">
-        <v>191</v>
-      </c>
-      <c r="E88" t="n">
-        <v>191</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1782200</v>
-      </c>
-      <c r="G88" t="n">
-        <v>190.6666666666667</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>191</v>
-      </c>
-      <c r="K88" t="n">
-        <v>190</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>191</v>
-      </c>
-      <c r="C89" t="n">
-        <v>191</v>
-      </c>
-      <c r="D89" t="n">
-        <v>192</v>
-      </c>
-      <c r="E89" t="n">
-        <v>191</v>
-      </c>
-      <c r="F89" t="n">
-        <v>445200</v>
-      </c>
-      <c r="G89" t="n">
-        <v>191</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>191</v>
-      </c>
-      <c r="K89" t="n">
-        <v>190</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>191</v>
-      </c>
-      <c r="C90" t="n">
-        <v>191</v>
-      </c>
-      <c r="D90" t="n">
-        <v>191</v>
-      </c>
-      <c r="E90" t="n">
-        <v>191</v>
-      </c>
-      <c r="F90" t="n">
-        <v>777617.7275</v>
-      </c>
-      <c r="G90" t="n">
-        <v>191</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>191</v>
-      </c>
-      <c r="K90" t="n">
-        <v>190</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>191</v>
-      </c>
-      <c r="C91" t="n">
-        <v>191</v>
-      </c>
-      <c r="D91" t="n">
-        <v>191</v>
-      </c>
-      <c r="E91" t="n">
-        <v>191</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1944305</v>
-      </c>
-      <c r="G91" t="n">
-        <v>191</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>190</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>191</v>
-      </c>
-      <c r="C92" t="n">
-        <v>190</v>
-      </c>
-      <c r="D92" t="n">
-        <v>191</v>
-      </c>
-      <c r="E92" t="n">
-        <v>190</v>
-      </c>
-      <c r="F92" t="n">
-        <v>912066</v>
-      </c>
-      <c r="G92" t="n">
-        <v>190.6666666666667</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>190</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>190</v>
-      </c>
-      <c r="C93" t="n">
-        <v>190</v>
-      </c>
-      <c r="D93" t="n">
-        <v>190</v>
-      </c>
-      <c r="E93" t="n">
-        <v>190</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2650000</v>
-      </c>
-      <c r="G93" t="n">
-        <v>190.3333333333333</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>190</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>190</v>
-      </c>
-      <c r="C94" t="n">
-        <v>191</v>
-      </c>
-      <c r="D94" t="n">
-        <v>191</v>
-      </c>
-      <c r="E94" t="n">
-        <v>190</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1673790.7751</v>
-      </c>
-      <c r="G94" t="n">
-        <v>190.3333333333333</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>190</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>191</v>
-      </c>
-      <c r="C95" t="n">
-        <v>191</v>
-      </c>
-      <c r="D95" t="n">
-        <v>191</v>
-      </c>
-      <c r="E95" t="n">
-        <v>191</v>
-      </c>
-      <c r="F95" t="n">
-        <v>995072.5968000001</v>
-      </c>
-      <c r="G95" t="n">
-        <v>190.6666666666667</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>190</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>191</v>
-      </c>
-      <c r="C96" t="n">
-        <v>191</v>
-      </c>
-      <c r="D96" t="n">
-        <v>191</v>
-      </c>
-      <c r="E96" t="n">
-        <v>191</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1572096</v>
-      </c>
-      <c r="G96" t="n">
-        <v>191</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>190</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>191</v>
-      </c>
-      <c r="C97" t="n">
-        <v>191</v>
-      </c>
-      <c r="D97" t="n">
-        <v>191</v>
-      </c>
-      <c r="E97" t="n">
-        <v>191</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1560320</v>
-      </c>
-      <c r="G97" t="n">
-        <v>191</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>190</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3947,24 +3815,26 @@
         <v>191</v>
       </c>
       <c r="F98" t="n">
-        <v>1536768</v>
+        <v>1560320</v>
       </c>
       <c r="G98" t="n">
-        <v>191</v>
+        <v>191.3833333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>191</v>
+      </c>
       <c r="K98" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -3988,26 +3858,24 @@
         <v>191</v>
       </c>
       <c r="F99" t="n">
-        <v>1554431.4032</v>
+        <v>1536768</v>
       </c>
       <c r="G99" t="n">
-        <v>191</v>
+        <v>191.3166666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>191</v>
+      </c>
       <c r="K99" t="n">
-        <v>190</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4029,10 +3897,10 @@
         <v>191</v>
       </c>
       <c r="F100" t="n">
-        <v>1572096.5968</v>
+        <v>1554431.4032</v>
       </c>
       <c r="G100" t="n">
-        <v>191</v>
+        <v>191.2333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4042,11 +3910,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4070,10 +3938,10 @@
         <v>191</v>
       </c>
       <c r="F101" t="n">
-        <v>23552</v>
+        <v>1572096.5968</v>
       </c>
       <c r="G101" t="n">
-        <v>191</v>
+        <v>191.1833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4083,11 +3951,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -4099,22 +3967,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C102" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D102" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E102" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F102" t="n">
-        <v>2.496</v>
+        <v>23552</v>
       </c>
       <c r="G102" t="n">
-        <v>191.3333333333333</v>
+        <v>191.15</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4123,14 +3991,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>190</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4143,19 +4005,19 @@
         <v>192</v>
       </c>
       <c r="C103" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D103" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E103" t="n">
         <v>192</v>
       </c>
       <c r="F103" t="n">
-        <v>5019.2475</v>
+        <v>2.496</v>
       </c>
       <c r="G103" t="n">
-        <v>192</v>
+        <v>191.1333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4164,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>190</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4181,7 +4037,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C104" t="n">
         <v>193</v>
@@ -4190,13 +4046,13 @@
         <v>193</v>
       </c>
       <c r="E104" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F104" t="n">
-        <v>1900.5959</v>
+        <v>5019.2475</v>
       </c>
       <c r="G104" t="n">
-        <v>192.6666666666667</v>
+        <v>191.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4205,14 +4061,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>190</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4222,22 +4072,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C105" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D105" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E105" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F105" t="n">
-        <v>399.2158</v>
+        <v>1900.5959</v>
       </c>
       <c r="G105" t="n">
-        <v>193.3333333333333</v>
+        <v>191.05</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4246,14 +4096,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>190</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4263,22 +4107,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C106" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D106" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E106" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F106" t="n">
-        <v>582.6758</v>
+        <v>399.2158</v>
       </c>
       <c r="G106" t="n">
-        <v>193.3333333333333</v>
+        <v>191.0333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4287,14 +4131,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>190</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4304,22 +4142,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C107" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D107" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E107" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F107" t="n">
-        <v>124.8685</v>
+        <v>582.6758</v>
       </c>
       <c r="G107" t="n">
-        <v>193.6666666666667</v>
+        <v>191.05</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4328,14 +4166,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>190</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4345,22 +4177,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C108" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D108" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E108" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F108" t="n">
-        <v>5888.5968</v>
+        <v>124.8685</v>
       </c>
       <c r="G108" t="n">
-        <v>193.3333333333333</v>
+        <v>191.05</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4369,14 +4201,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>190</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4386,22 +4212,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C109" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D109" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E109" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F109" t="n">
-        <v>1.7396</v>
+        <v>5888.5968</v>
       </c>
       <c r="G109" t="n">
-        <v>193.6666666666667</v>
+        <v>191.0166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4410,14 +4236,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>190</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4427,22 +4247,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C110" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D110" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E110" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F110" t="n">
-        <v>32330.8166</v>
+        <v>1.7396</v>
       </c>
       <c r="G110" t="n">
-        <v>193.3333333333333</v>
+        <v>191.05</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4451,14 +4271,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>190</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4480,10 +4294,10 @@
         <v>193</v>
       </c>
       <c r="F111" t="n">
-        <v>11110.7864</v>
+        <v>32330.8166</v>
       </c>
       <c r="G111" t="n">
-        <v>193.3333333333333</v>
+        <v>191.0333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4492,14 +4306,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>190</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4509,22 +4317,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C112" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D112" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E112" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F112" t="n">
-        <v>1000</v>
+        <v>11110.7864</v>
       </c>
       <c r="G112" t="n">
-        <v>193.3333333333333</v>
+        <v>191.0166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4533,14 +4341,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>190</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4550,7 +4352,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C113" t="n">
         <v>194</v>
@@ -4559,13 +4361,13 @@
         <v>194</v>
       </c>
       <c r="E113" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F113" t="n">
-        <v>1794.8069</v>
+        <v>1000</v>
       </c>
       <c r="G113" t="n">
-        <v>193.6666666666667</v>
+        <v>191.0166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4574,14 +4376,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>190</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4591,22 +4387,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C114" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D114" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E114" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F114" t="n">
-        <v>1.0841</v>
+        <v>1794.8069</v>
       </c>
       <c r="G114" t="n">
-        <v>194.3333333333333</v>
+        <v>191.0166666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4615,14 +4411,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>190</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4632,22 +4422,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C115" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D115" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E115" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F115" t="n">
-        <v>3427.8025</v>
+        <v>1.0841</v>
       </c>
       <c r="G115" t="n">
-        <v>194</v>
+        <v>191.0333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4656,14 +4446,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>190</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4673,22 +4457,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C116" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D116" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E116" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F116" t="n">
-        <v>1244.5944</v>
+        <v>3427.8025</v>
       </c>
       <c r="G116" t="n">
-        <v>193</v>
+        <v>191.0166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4697,14 +4481,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>190</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4714,22 +4492,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C117" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D117" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E117" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F117" t="n">
-        <v>1334.2031</v>
+        <v>1244.5944</v>
       </c>
       <c r="G117" t="n">
-        <v>191.3333333333333</v>
+        <v>191</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4738,14 +4516,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>190</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4758,19 +4530,19 @@
         <v>190</v>
       </c>
       <c r="C118" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D118" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E118" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F118" t="n">
-        <v>5667.2253</v>
+        <v>1334.2031</v>
       </c>
       <c r="G118" t="n">
-        <v>190.6666666666667</v>
+        <v>190.9666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4779,14 +4551,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>190</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4799,19 +4565,19 @@
         <v>190</v>
       </c>
       <c r="C119" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D119" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E119" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F119" t="n">
-        <v>289.0499</v>
+        <v>5667.2253</v>
       </c>
       <c r="G119" t="n">
-        <v>190.3333333333333</v>
+        <v>190.9833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4820,14 +4586,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>190</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4837,22 +4597,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C120" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D120" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E120" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F120" t="n">
-        <v>82.3648</v>
+        <v>289.0499</v>
       </c>
       <c r="G120" t="n">
-        <v>190</v>
+        <v>190.9833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4861,14 +4621,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>190</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +4632,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C121" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D121" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E121" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F121" t="n">
-        <v>1.5844</v>
+        <v>82.3648</v>
       </c>
       <c r="G121" t="n">
-        <v>189.6666666666667</v>
+        <v>190.9666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4902,14 +4656,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>190</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4931,10 +4679,10 @@
         <v>190</v>
       </c>
       <c r="F122" t="n">
-        <v>2430.4578</v>
+        <v>1.5844</v>
       </c>
       <c r="G122" t="n">
-        <v>189.6666666666667</v>
+        <v>190.9666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4943,14 +4691,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>190</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4972,10 +4714,10 @@
         <v>190</v>
       </c>
       <c r="F123" t="n">
-        <v>1915.2092</v>
+        <v>2430.4578</v>
       </c>
       <c r="G123" t="n">
-        <v>190</v>
+        <v>190.9666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4984,14 +4726,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>190</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5001,22 +4737,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C124" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D124" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E124" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F124" t="n">
-        <v>5</v>
+        <v>1915.2092</v>
       </c>
       <c r="G124" t="n">
-        <v>189.3333333333333</v>
+        <v>190.9666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5025,14 +4761,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>190</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5042,22 +4772,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C125" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D125" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E125" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F125" t="n">
-        <v>1.8052</v>
+        <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>189.3333333333333</v>
+        <v>190.9333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5066,14 +4796,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>190</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5095,10 +4819,10 @@
         <v>190</v>
       </c>
       <c r="F126" t="n">
-        <v>1296</v>
+        <v>1.8052</v>
       </c>
       <c r="G126" t="n">
-        <v>189.3333333333333</v>
+        <v>190.9333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5107,14 +4831,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>190</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5136,10 +4854,10 @@
         <v>190</v>
       </c>
       <c r="F127" t="n">
-        <v>406</v>
+        <v>1296</v>
       </c>
       <c r="G127" t="n">
-        <v>190</v>
+        <v>190.9333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5148,14 +4866,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>190</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5177,10 +4889,10 @@
         <v>190</v>
       </c>
       <c r="F128" t="n">
-        <v>1944.8369</v>
+        <v>406</v>
       </c>
       <c r="G128" t="n">
-        <v>190</v>
+        <v>190.9333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5189,14 +4901,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>190</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5218,10 +4924,10 @@
         <v>190</v>
       </c>
       <c r="F129" t="n">
-        <v>343.5</v>
+        <v>1944.8369</v>
       </c>
       <c r="G129" t="n">
-        <v>190</v>
+        <v>190.9333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5230,14 +4936,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>190</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5259,10 +4959,10 @@
         <v>190</v>
       </c>
       <c r="F130" t="n">
-        <v>5300</v>
+        <v>343.5</v>
       </c>
       <c r="G130" t="n">
-        <v>190</v>
+        <v>190.9333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5271,14 +4971,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>190</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5288,22 +4982,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C131" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D131" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E131" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F131" t="n">
-        <v>4553.2371</v>
+        <v>5300</v>
       </c>
       <c r="G131" t="n">
-        <v>189.6666666666667</v>
+        <v>190.9333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5312,14 +5006,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>190</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5329,22 +5017,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C132" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D132" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E132" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F132" t="n">
-        <v>1175.7988</v>
+        <v>4553.2371</v>
       </c>
       <c r="G132" t="n">
-        <v>189.6666666666667</v>
+        <v>190.9166666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5353,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>190</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5382,10 +5064,10 @@
         <v>190</v>
       </c>
       <c r="F133" t="n">
-        <v>1331.6128</v>
+        <v>1175.7988</v>
       </c>
       <c r="G133" t="n">
-        <v>189.6666666666667</v>
+        <v>190.9166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5394,14 +5076,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>190</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5414,19 +5090,19 @@
         <v>190</v>
       </c>
       <c r="C134" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D134" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E134" t="n">
         <v>190</v>
       </c>
       <c r="F134" t="n">
-        <v>501.6389</v>
+        <v>1331.6128</v>
       </c>
       <c r="G134" t="n">
-        <v>190.3333333333333</v>
+        <v>190.9166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5435,14 +5111,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>190</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5452,7 +5122,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C135" t="n">
         <v>191</v>
@@ -5461,13 +5131,13 @@
         <v>191</v>
       </c>
       <c r="E135" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F135" t="n">
-        <v>72366.6618</v>
+        <v>501.6389</v>
       </c>
       <c r="G135" t="n">
-        <v>190.6666666666667</v>
+        <v>190.9333333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5476,14 +5146,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>190</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5505,10 +5169,10 @@
         <v>191</v>
       </c>
       <c r="F136" t="n">
-        <v>1307756.3382</v>
+        <v>72366.6618</v>
       </c>
       <c r="G136" t="n">
-        <v>191</v>
+        <v>190.95</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5517,14 +5181,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>190</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5537,19 +5195,19 @@
         <v>191</v>
       </c>
       <c r="C137" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D137" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E137" t="n">
         <v>191</v>
       </c>
       <c r="F137" t="n">
-        <v>144944.1334</v>
+        <v>1307756.3382</v>
       </c>
       <c r="G137" t="n">
-        <v>191.6666666666667</v>
+        <v>190.9666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5558,14 +5216,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>190</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5575,22 +5227,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>191</v>
+      </c>
+      <c r="C138" t="n">
         <v>193</v>
       </c>
-      <c r="C138" t="n">
-        <v>196</v>
-      </c>
       <c r="D138" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E138" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F138" t="n">
-        <v>7802.0552</v>
+        <v>144944.1334</v>
       </c>
       <c r="G138" t="n">
-        <v>193.3333333333333</v>
+        <v>191.0166666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5599,14 +5251,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>190</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5616,22 +5262,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C139" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D139" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E139" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F139" t="n">
-        <v>4749.9227</v>
+        <v>7802.0552</v>
       </c>
       <c r="G139" t="n">
-        <v>194.6666666666667</v>
+        <v>191.1166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5640,14 +5286,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>190</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5657,7 +5297,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C140" t="n">
         <v>195</v>
@@ -5669,10 +5309,10 @@
         <v>195</v>
       </c>
       <c r="F140" t="n">
-        <v>11.873</v>
+        <v>4749.9227</v>
       </c>
       <c r="G140" t="n">
-        <v>195.3333333333333</v>
+        <v>191.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5681,14 +5321,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>190</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5698,22 +5332,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C141" t="n">
         <v>195</v>
       </c>
       <c r="D141" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E141" t="n">
         <v>195</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>11.873</v>
       </c>
       <c r="G141" t="n">
-        <v>195</v>
+        <v>191.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5722,14 +5356,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>190</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5751,10 +5379,10 @@
         <v>195</v>
       </c>
       <c r="F142" t="n">
-        <v>1954</v>
+        <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>195</v>
+        <v>191.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5763,14 +5391,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>190</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5792,10 +5414,10 @@
         <v>195</v>
       </c>
       <c r="F143" t="n">
-        <v>172.1224</v>
+        <v>1954</v>
       </c>
       <c r="G143" t="n">
-        <v>195</v>
+        <v>191.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5804,14 +5426,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>190</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5833,10 +5449,10 @@
         <v>195</v>
       </c>
       <c r="F144" t="n">
-        <v>2950.5914</v>
+        <v>172.1224</v>
       </c>
       <c r="G144" t="n">
-        <v>195</v>
+        <v>191.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5845,14 +5461,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>190</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5865,19 +5475,19 @@
         <v>195</v>
       </c>
       <c r="C145" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D145" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E145" t="n">
         <v>195</v>
       </c>
       <c r="F145" t="n">
-        <v>1883.5518</v>
+        <v>2950.5914</v>
       </c>
       <c r="G145" t="n">
-        <v>195.3333333333333</v>
+        <v>191.6833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5886,14 +5496,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>190</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5903,7 +5507,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C146" t="n">
         <v>196</v>
@@ -5912,13 +5516,13 @@
         <v>196</v>
       </c>
       <c r="E146" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F146" t="n">
-        <v>2327.466</v>
+        <v>1883.5518</v>
       </c>
       <c r="G146" t="n">
-        <v>195.6666666666667</v>
+        <v>191.7833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5927,14 +5531,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>190</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5947,19 +5545,19 @@
         <v>196</v>
       </c>
       <c r="C147" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D147" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E147" t="n">
         <v>196</v>
       </c>
       <c r="F147" t="n">
-        <v>4467.0273</v>
+        <v>2327.466</v>
       </c>
       <c r="G147" t="n">
-        <v>196.3333333333333</v>
+        <v>191.8833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5968,14 +5566,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>190</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5985,22 +5577,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>196</v>
+      </c>
+      <c r="C148" t="n">
         <v>197</v>
       </c>
-      <c r="C148" t="n">
-        <v>198</v>
-      </c>
       <c r="D148" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E148" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F148" t="n">
-        <v>1390.59852020202</v>
+        <v>4467.0273</v>
       </c>
       <c r="G148" t="n">
-        <v>197</v>
+        <v>191.9833333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6009,14 +5601,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>190</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6026,22 +5612,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>197</v>
+      </c>
+      <c r="C149" t="n">
         <v>198</v>
       </c>
-      <c r="C149" t="n">
-        <v>199</v>
-      </c>
       <c r="D149" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E149" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F149" t="n">
-        <v>4036.597127049388</v>
+        <v>1390.59852020202</v>
       </c>
       <c r="G149" t="n">
-        <v>198</v>
+        <v>192.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6050,14 +5636,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>190</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6070,19 +5650,19 @@
         <v>198</v>
       </c>
       <c r="C150" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D150" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E150" t="n">
         <v>198</v>
       </c>
       <c r="F150" t="n">
-        <v>1010.10101010101</v>
+        <v>4036.597127049388</v>
       </c>
       <c r="G150" t="n">
-        <v>198.3333333333333</v>
+        <v>192.2333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6091,14 +5671,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>190</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6120,28 +5694,22 @@
         <v>198</v>
       </c>
       <c r="F151" t="n">
-        <v>505.050505050505</v>
+        <v>1010.10101010101</v>
       </c>
       <c r="G151" t="n">
-        <v>198.3333333333333</v>
+        <v>192.35</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>190</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>1.037105263157895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -6161,16 +5729,16 @@
         <v>198</v>
       </c>
       <c r="F152" t="n">
-        <v>1515.151515151515</v>
+        <v>505.050505050505</v>
       </c>
       <c r="G152" t="n">
-        <v>198</v>
+        <v>192.4666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -6184,22 +5752,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C153" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D153" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E153" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F153" t="n">
-        <v>1.9291</v>
+        <v>1515.151515151515</v>
       </c>
       <c r="G153" t="n">
-        <v>198.3333333333333</v>
+        <v>192.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6219,22 +5787,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C154" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D154" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E154" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F154" t="n">
-        <v>28559.416</v>
+        <v>1.9291</v>
       </c>
       <c r="G154" t="n">
-        <v>199</v>
+        <v>192.75</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6254,7 +5822,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C155" t="n">
         <v>200</v>
@@ -6263,13 +5831,13 @@
         <v>200</v>
       </c>
       <c r="E155" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F155" t="n">
-        <v>220</v>
+        <v>28559.416</v>
       </c>
       <c r="G155" t="n">
-        <v>199.6666666666667</v>
+        <v>192.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6301,10 +5869,10 @@
         <v>200</v>
       </c>
       <c r="F156" t="n">
-        <v>155.205</v>
+        <v>220</v>
       </c>
       <c r="G156" t="n">
-        <v>200</v>
+        <v>193.05</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6336,10 +5904,10 @@
         <v>200</v>
       </c>
       <c r="F157" t="n">
-        <v>237.4724</v>
+        <v>155.205</v>
       </c>
       <c r="G157" t="n">
-        <v>200</v>
+        <v>193.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6371,16 +5939,16 @@
         <v>200</v>
       </c>
       <c r="F158" t="n">
-        <v>2458.656055778894</v>
+        <v>237.4724</v>
       </c>
       <c r="G158" t="n">
-        <v>200</v>
+        <v>193.35</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6394,28 +5962,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C159" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D159" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E159" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F159" t="n">
-        <v>2329.0172</v>
+        <v>2458.656055778894</v>
       </c>
       <c r="G159" t="n">
-        <v>199.6666666666667</v>
+        <v>193.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6432,25 +6000,25 @@
         <v>201</v>
       </c>
       <c r="C160" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D160" t="n">
         <v>201</v>
       </c>
       <c r="E160" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F160" t="n">
-        <v>65.1199</v>
+        <v>2329.0172</v>
       </c>
       <c r="G160" t="n">
-        <v>200</v>
+        <v>193.6333333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6476,16 +6044,16 @@
         <v>201</v>
       </c>
       <c r="F161" t="n">
-        <v>159.4228</v>
+        <v>65.1199</v>
       </c>
       <c r="G161" t="n">
-        <v>200.3333333333333</v>
+        <v>193.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6499,28 +6067,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C162" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D162" t="n">
         <v>201</v>
       </c>
       <c r="E162" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F162" t="n">
-        <v>42144.1498</v>
+        <v>159.4228</v>
       </c>
       <c r="G162" t="n">
-        <v>200.6666666666667</v>
+        <v>193.9666666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6534,28 +6102,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C163" t="n">
         <v>200</v>
       </c>
       <c r="D163" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E163" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F163" t="n">
-        <v>158.9271</v>
+        <v>42144.1498</v>
       </c>
       <c r="G163" t="n">
-        <v>200.3333333333333</v>
+        <v>194.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6572,19 +6140,19 @@
         <v>200</v>
       </c>
       <c r="C164" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D164" t="n">
         <v>200</v>
       </c>
       <c r="E164" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F164" t="n">
-        <v>5476.9564</v>
+        <v>158.9271</v>
       </c>
       <c r="G164" t="n">
-        <v>199.3333333333333</v>
+        <v>194.2166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6607,19 +6175,19 @@
         <v>200</v>
       </c>
       <c r="C165" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D165" t="n">
         <v>200</v>
       </c>
       <c r="E165" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F165" t="n">
-        <v>1635.525</v>
+        <v>5476.9564</v>
       </c>
       <c r="G165" t="n">
-        <v>199.3333333333333</v>
+        <v>194.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6639,22 +6207,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C166" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D166" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E166" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F166" t="n">
-        <v>4333.2871</v>
+        <v>1635.525</v>
       </c>
       <c r="G166" t="n">
-        <v>199</v>
+        <v>194.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6674,22 +6242,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C167" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D167" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E167" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F167" t="n">
-        <v>530.7541</v>
+        <v>4333.2871</v>
       </c>
       <c r="G167" t="n">
-        <v>199.6666666666667</v>
+        <v>194.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6709,22 +6277,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C168" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D168" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E168" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F168" t="n">
-        <v>106.383</v>
+        <v>530.7541</v>
       </c>
       <c r="G168" t="n">
-        <v>199.3333333333333</v>
+        <v>194.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6744,22 +6312,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C169" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D169" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E169" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F169" t="n">
-        <v>80</v>
+        <v>106.383</v>
       </c>
       <c r="G169" t="n">
-        <v>199</v>
+        <v>194.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6782,19 +6350,19 @@
         <v>198</v>
       </c>
       <c r="C170" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D170" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E170" t="n">
         <v>198</v>
       </c>
       <c r="F170" t="n">
-        <v>6042.32</v>
+        <v>80</v>
       </c>
       <c r="G170" t="n">
-        <v>198.6666666666667</v>
+        <v>194.7666666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6814,22 +6382,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C171" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D171" t="n">
         <v>200</v>
       </c>
       <c r="E171" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F171" t="n">
-        <v>1589.9742</v>
+        <v>6042.32</v>
       </c>
       <c r="G171" t="n">
-        <v>199</v>
+        <v>194.8666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6849,22 +6417,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C172" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D172" t="n">
         <v>200</v>
       </c>
       <c r="E172" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F172" t="n">
-        <v>15184.9077</v>
+        <v>1589.9742</v>
       </c>
       <c r="G172" t="n">
-        <v>199</v>
+        <v>194.9833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6884,10 +6452,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C173" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D173" t="n">
         <v>200</v>
@@ -6896,10 +6464,10 @@
         <v>198</v>
       </c>
       <c r="F173" t="n">
-        <v>6604.9452</v>
+        <v>15184.9077</v>
       </c>
       <c r="G173" t="n">
-        <v>199.3333333333333</v>
+        <v>195.05</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6919,22 +6487,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C174" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D174" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E174" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F174" t="n">
-        <v>199</v>
+        <v>6604.9452</v>
       </c>
       <c r="G174" t="n">
-        <v>199</v>
+        <v>195.15</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6969,7 +6537,7 @@
         <v>199</v>
       </c>
       <c r="G175" t="n">
-        <v>199.3333333333333</v>
+        <v>195.2166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7001,10 +6569,10 @@
         <v>199</v>
       </c>
       <c r="F176" t="n">
-        <v>7459.1067</v>
+        <v>199</v>
       </c>
       <c r="G176" t="n">
-        <v>199</v>
+        <v>195.3166666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7036,10 +6604,10 @@
         <v>199</v>
       </c>
       <c r="F177" t="n">
-        <v>2302.6377</v>
+        <v>7459.1067</v>
       </c>
       <c r="G177" t="n">
-        <v>199</v>
+        <v>195.45</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7071,10 +6639,10 @@
         <v>199</v>
       </c>
       <c r="F178" t="n">
-        <v>2000</v>
+        <v>2302.6377</v>
       </c>
       <c r="G178" t="n">
-        <v>199</v>
+        <v>195.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7106,10 +6674,10 @@
         <v>199</v>
       </c>
       <c r="F179" t="n">
-        <v>12036.8011</v>
+        <v>2000</v>
       </c>
       <c r="G179" t="n">
-        <v>199</v>
+        <v>195.7333333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7132,19 +6700,19 @@
         <v>199</v>
       </c>
       <c r="C180" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D180" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E180" t="n">
         <v>199</v>
       </c>
       <c r="F180" t="n">
-        <v>2970.711723529412</v>
+        <v>12036.8011</v>
       </c>
       <c r="G180" t="n">
-        <v>200.6666666666667</v>
+        <v>195.8833333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7164,22 +6732,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C181" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D181" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E181" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F181" t="n">
-        <v>73225.1658</v>
+        <v>2970.711723529412</v>
       </c>
       <c r="G181" t="n">
-        <v>202.6666666666667</v>
+        <v>196.1333333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7199,22 +6767,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C182" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D182" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E182" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F182" t="n">
-        <v>36</v>
+        <v>73225.1658</v>
       </c>
       <c r="G182" t="n">
-        <v>203.3333333333333</v>
+        <v>196.3833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7246,10 +6814,10 @@
         <v>201</v>
       </c>
       <c r="F183" t="n">
-        <v>5362.3216</v>
+        <v>36</v>
       </c>
       <c r="G183" t="n">
-        <v>202.3333333333333</v>
+        <v>196.5666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7281,10 +6849,10 @@
         <v>201</v>
       </c>
       <c r="F184" t="n">
-        <v>1.5074</v>
+        <v>5362.3216</v>
       </c>
       <c r="G184" t="n">
-        <v>201</v>
+        <v>196.75</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7304,22 +6872,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C185" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D185" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E185" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F185" t="n">
-        <v>254.1666666666667</v>
+        <v>1.5074</v>
       </c>
       <c r="G185" t="n">
-        <v>202</v>
+        <v>196.9666666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7339,22 +6907,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C186" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D186" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E186" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F186" t="n">
-        <v>1062.32</v>
+        <v>254.1666666666667</v>
       </c>
       <c r="G186" t="n">
-        <v>202.3333333333333</v>
+        <v>197.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7374,22 +6942,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C187" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D187" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E187" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F187" t="n">
-        <v>159.0243</v>
+        <v>1062.32</v>
       </c>
       <c r="G187" t="n">
-        <v>202.3333333333333</v>
+        <v>197.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7421,10 +6989,10 @@
         <v>201</v>
       </c>
       <c r="F188" t="n">
-        <v>995.02</v>
+        <v>159.0243</v>
       </c>
       <c r="G188" t="n">
-        <v>201.3333333333333</v>
+        <v>197.5833333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7444,22 +7012,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C189" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D189" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E189" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F189" t="n">
-        <v>393.1125</v>
+        <v>995.02</v>
       </c>
       <c r="G189" t="n">
-        <v>200.6666666666667</v>
+        <v>197.7666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7491,10 +7059,10 @@
         <v>200</v>
       </c>
       <c r="F190" t="n">
-        <v>586.8875</v>
+        <v>393.1125</v>
       </c>
       <c r="G190" t="n">
-        <v>200.3333333333333</v>
+        <v>197.9333333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7514,22 +7082,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C191" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D191" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E191" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F191" t="n">
-        <v>128</v>
+        <v>586.8875</v>
       </c>
       <c r="G191" t="n">
-        <v>200.3333333333333</v>
+        <v>198.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7549,22 +7117,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C192" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D192" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E192" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F192" t="n">
-        <v>883.7935</v>
+        <v>128</v>
       </c>
       <c r="G192" t="n">
-        <v>200.3333333333333</v>
+        <v>198.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7596,10 +7164,10 @@
         <v>200</v>
       </c>
       <c r="F193" t="n">
-        <v>1674.3703</v>
+        <v>883.7935</v>
       </c>
       <c r="G193" t="n">
-        <v>200.3333333333333</v>
+        <v>198.4666666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7631,10 +7199,10 @@
         <v>200</v>
       </c>
       <c r="F194" t="n">
-        <v>1052.3625</v>
+        <v>1674.3703</v>
       </c>
       <c r="G194" t="n">
-        <v>200</v>
+        <v>198.6333333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7654,22 +7222,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C195" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D195" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E195" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F195" t="n">
-        <v>599.7524</v>
+        <v>1052.3625</v>
       </c>
       <c r="G195" t="n">
-        <v>201.3333333333333</v>
+        <v>198.7833333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7689,22 +7257,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>203</v>
+      </c>
+      <c r="C196" t="n">
         <v>204</v>
-      </c>
-      <c r="C196" t="n">
-        <v>199</v>
       </c>
       <c r="D196" t="n">
         <v>204</v>
       </c>
       <c r="E196" t="n">
+        <v>203</v>
+      </c>
+      <c r="F196" t="n">
+        <v>599.7524</v>
+      </c>
+      <c r="G196" t="n">
         <v>199</v>
-      </c>
-      <c r="F196" t="n">
-        <v>128.9558</v>
-      </c>
-      <c r="G196" t="n">
-        <v>201</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7724,22 +7292,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C197" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D197" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E197" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F197" t="n">
-        <v>5157.2927</v>
+        <v>128.9558</v>
       </c>
       <c r="G197" t="n">
-        <v>201</v>
+        <v>199.1333333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7759,22 +7327,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C198" t="n">
         <v>200</v>
       </c>
       <c r="D198" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E198" t="n">
         <v>200</v>
       </c>
       <c r="F198" t="n">
-        <v>129.4573</v>
+        <v>5157.2927</v>
       </c>
       <c r="G198" t="n">
-        <v>199.6666666666667</v>
+        <v>199.25</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7806,10 +7374,10 @@
         <v>200</v>
       </c>
       <c r="F199" t="n">
-        <v>4381.6808</v>
+        <v>129.4573</v>
       </c>
       <c r="G199" t="n">
-        <v>200</v>
+        <v>199.3166666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7832,19 +7400,19 @@
         <v>200</v>
       </c>
       <c r="C200" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D200" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E200" t="n">
         <v>200</v>
       </c>
       <c r="F200" t="n">
-        <v>295.7949</v>
+        <v>4381.6808</v>
       </c>
       <c r="G200" t="n">
-        <v>200.6666666666667</v>
+        <v>199.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7864,22 +7432,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C201" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D201" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E201" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F201" t="n">
-        <v>330.5683</v>
+        <v>295.7949</v>
       </c>
       <c r="G201" t="n">
-        <v>201</v>
+        <v>199.5166666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7899,22 +7467,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C202" t="n">
         <v>201</v>
       </c>
       <c r="D202" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E202" t="n">
         <v>201</v>
       </c>
       <c r="F202" t="n">
-        <v>995.02</v>
+        <v>330.5683</v>
       </c>
       <c r="G202" t="n">
-        <v>201.3333333333333</v>
+        <v>199.6166666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7934,22 +7502,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C203" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D203" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E203" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F203" t="n">
-        <v>6520.8383</v>
+        <v>995.02</v>
       </c>
       <c r="G203" t="n">
-        <v>201.6666666666667</v>
+        <v>199.7166666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7972,19 +7540,19 @@
         <v>202</v>
       </c>
       <c r="C204" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D204" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E204" t="n">
         <v>202</v>
       </c>
       <c r="F204" t="n">
-        <v>4712.5628</v>
+        <v>6520.8383</v>
       </c>
       <c r="G204" t="n">
-        <v>202</v>
+        <v>199.85</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8004,22 +7572,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C205" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D205" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E205" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F205" t="n">
-        <v>4859.7012</v>
+        <v>4712.5628</v>
       </c>
       <c r="G205" t="n">
-        <v>202.6666666666667</v>
+        <v>199.9666666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8039,22 +7607,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C206" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D206" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E206" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F206" t="n">
-        <v>100</v>
+        <v>4859.7012</v>
       </c>
       <c r="G206" t="n">
-        <v>201.6666666666667</v>
+        <v>200.0833333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8074,22 +7642,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C207" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D207" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E207" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F207" t="n">
-        <v>3054.931</v>
+        <v>100</v>
       </c>
       <c r="G207" t="n">
-        <v>202</v>
+        <v>200.15</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8121,10 +7689,10 @@
         <v>203</v>
       </c>
       <c r="F208" t="n">
-        <v>11.9746</v>
+        <v>3054.931</v>
       </c>
       <c r="G208" t="n">
-        <v>202</v>
+        <v>200.25</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8144,22 +7712,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C209" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D209" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E209" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F209" t="n">
-        <v>2847</v>
+        <v>11.9746</v>
       </c>
       <c r="G209" t="n">
-        <v>202.3333333333333</v>
+        <v>200.3333333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8191,10 +7759,10 @@
         <v>201</v>
       </c>
       <c r="F210" t="n">
-        <v>1918.7562</v>
+        <v>2847</v>
       </c>
       <c r="G210" t="n">
-        <v>201.6666666666667</v>
+        <v>200.3666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8214,22 +7782,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C211" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D211" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E211" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F211" t="n">
-        <v>410</v>
+        <v>1918.7562</v>
       </c>
       <c r="G211" t="n">
-        <v>200.6666666666667</v>
+        <v>200.4166666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8261,10 +7829,10 @@
         <v>200</v>
       </c>
       <c r="F212" t="n">
-        <v>10388.8632</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
-        <v>200.3333333333333</v>
+        <v>200.45</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8296,10 +7864,10 @@
         <v>200</v>
       </c>
       <c r="F213" t="n">
-        <v>1012.0555</v>
+        <v>10388.8632</v>
       </c>
       <c r="G213" t="n">
-        <v>200</v>
+        <v>200.4833333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8331,10 +7899,10 @@
         <v>200</v>
       </c>
       <c r="F214" t="n">
-        <v>4473.8728</v>
+        <v>1012.0555</v>
       </c>
       <c r="G214" t="n">
-        <v>200</v>
+        <v>200.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8366,10 +7934,10 @@
         <v>200</v>
       </c>
       <c r="F215" t="n">
-        <v>3715.2085</v>
+        <v>4473.8728</v>
       </c>
       <c r="G215" t="n">
-        <v>200</v>
+        <v>200.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8389,22 +7957,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C216" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D216" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E216" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F216" t="n">
-        <v>3.994</v>
+        <v>3715.2085</v>
       </c>
       <c r="G216" t="n">
-        <v>199.3333333333333</v>
+        <v>200.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8424,22 +7992,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C217" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D217" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E217" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F217" t="n">
-        <v>167</v>
+        <v>3.994</v>
       </c>
       <c r="G217" t="n">
-        <v>199.3333333333333</v>
+        <v>200.4666666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8459,22 +8027,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C218" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D218" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E218" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F218" t="n">
-        <v>6.9748</v>
+        <v>167</v>
       </c>
       <c r="G218" t="n">
-        <v>199</v>
+        <v>200.4666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8494,22 +8062,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C219" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D219" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E219" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F219" t="n">
-        <v>4186.9203</v>
+        <v>6.9748</v>
       </c>
       <c r="G219" t="n">
-        <v>199</v>
+        <v>200.45</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8529,22 +8097,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C220" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D220" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E220" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F220" t="n">
-        <v>21717.867383</v>
+        <v>4186.9203</v>
       </c>
       <c r="G220" t="n">
-        <v>199</v>
+        <v>200.4333333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8567,19 +8135,19 @@
         <v>199</v>
       </c>
       <c r="C221" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D221" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E221" t="n">
         <v>199</v>
       </c>
       <c r="F221" t="n">
-        <v>5051.505</v>
+        <v>21717.867383</v>
       </c>
       <c r="G221" t="n">
-        <v>199</v>
+        <v>200.4166666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8599,22 +8167,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C222" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D222" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E222" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F222" t="n">
-        <v>11926.632</v>
+        <v>5051.505</v>
       </c>
       <c r="G222" t="n">
-        <v>198.3333333333333</v>
+        <v>200.3833333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8634,22 +8202,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>198</v>
+      </c>
+      <c r="C223" t="n">
         <v>196</v>
       </c>
-      <c r="C223" t="n">
-        <v>195</v>
-      </c>
       <c r="D223" t="n">
+        <v>198</v>
+      </c>
+      <c r="E223" t="n">
         <v>196</v>
       </c>
-      <c r="E223" t="n">
-        <v>195</v>
-      </c>
       <c r="F223" t="n">
-        <v>21552.7369</v>
+        <v>11926.632</v>
       </c>
       <c r="G223" t="n">
-        <v>196.6666666666667</v>
+        <v>200.3166666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8669,22 +8237,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C224" t="n">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D224" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E224" t="n">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F224" t="n">
-        <v>15075.37688442211</v>
+        <v>21552.7369</v>
       </c>
       <c r="G224" t="n">
-        <v>196.6666666666667</v>
+        <v>200.2333333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8704,22 +8272,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C225" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D225" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E225" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F225" t="n">
-        <v>800.875</v>
+        <v>15075.37688442211</v>
       </c>
       <c r="G225" t="n">
-        <v>196.6666666666667</v>
+        <v>200.25</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8739,22 +8307,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C226" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D226" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E226" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F226" t="n">
-        <v>50.50505050505051</v>
+        <v>800.875</v>
       </c>
       <c r="G226" t="n">
-        <v>197.6666666666667</v>
+        <v>200.1833333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8774,22 +8342,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C227" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D227" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E227" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F227" t="n">
-        <v>60</v>
+        <v>50.50505050505051</v>
       </c>
       <c r="G227" t="n">
-        <v>196.6666666666667</v>
+        <v>200.1666666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8809,22 +8377,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C228" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D228" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E228" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F228" t="n">
-        <v>50.25125628140704</v>
+        <v>60</v>
       </c>
       <c r="G228" t="n">
-        <v>197.6666666666667</v>
+        <v>200.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8847,19 +8415,19 @@
         <v>199</v>
       </c>
       <c r="C229" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D229" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E229" t="n">
         <v>199</v>
       </c>
       <c r="F229" t="n">
-        <v>10909.56043321859</v>
+        <v>50.25125628140704</v>
       </c>
       <c r="G229" t="n">
-        <v>198.3333333333333</v>
+        <v>200.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8879,22 +8447,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C230" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D230" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E230" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F230" t="n">
-        <v>70</v>
+        <v>10909.56043321859</v>
       </c>
       <c r="G230" t="n">
-        <v>198.6666666666667</v>
+        <v>200.1333333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8917,19 +8485,19 @@
         <v>197</v>
       </c>
       <c r="C231" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D231" t="n">
         <v>197</v>
       </c>
       <c r="E231" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F231" t="n">
-        <v>10882.2865</v>
+        <v>70</v>
       </c>
       <c r="G231" t="n">
-        <v>197.3333333333333</v>
+        <v>200.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8949,22 +8517,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C232" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D232" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E232" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F232" t="n">
-        <v>98</v>
+        <v>10882.2865</v>
       </c>
       <c r="G232" t="n">
-        <v>196.6666666666667</v>
+        <v>200.0166666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8996,10 +8564,10 @@
         <v>198</v>
       </c>
       <c r="F233" t="n">
-        <v>745.1651000000001</v>
+        <v>98</v>
       </c>
       <c r="G233" t="n">
-        <v>197</v>
+        <v>200.0166666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9031,10 +8599,10 @@
         <v>198</v>
       </c>
       <c r="F234" t="n">
-        <v>643.6982</v>
+        <v>745.1651000000001</v>
       </c>
       <c r="G234" t="n">
-        <v>198</v>
+        <v>199.9833333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9049,6 +8617,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>198</v>
+      </c>
+      <c r="C235" t="n">
+        <v>198</v>
+      </c>
+      <c r="D235" t="n">
+        <v>198</v>
+      </c>
+      <c r="E235" t="n">
+        <v>198</v>
+      </c>
+      <c r="F235" t="n">
+        <v>643.6982</v>
+      </c>
+      <c r="G235" t="n">
+        <v>199.9666666666667</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest ICX.xlsx
+++ b/BackTest/2019-10-28 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:N245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>107.499</v>
       </c>
       <c r="G2" t="n">
+        <v>189.3333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>186.9</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>250.4246</v>
       </c>
       <c r="G3" t="n">
+        <v>189.4666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>187.1166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2184.7893</v>
       </c>
       <c r="G4" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="H4" t="n">
         <v>187.3333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2030.451</v>
       </c>
       <c r="G5" t="n">
+        <v>189.7333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>187.5166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1016.2602</v>
       </c>
       <c r="G6" t="n">
+        <v>189.8666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>187.6833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>7.121</v>
       </c>
       <c r="G7" t="n">
+        <v>189.9333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>187.8333333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,25 @@
         <v>113.9866</v>
       </c>
       <c r="G8" t="n">
+        <v>190</v>
+      </c>
+      <c r="H8" t="n">
         <v>187.9666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>190</v>
+      </c>
+      <c r="L8" t="n">
+        <v>190</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +723,29 @@
         <v>470</v>
       </c>
       <c r="G9" t="n">
+        <v>190.0666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>188.0666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>190</v>
+      </c>
+      <c r="L9" t="n">
+        <v>190</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +769,29 @@
         <v>1052.63</v>
       </c>
       <c r="G10" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="H10" t="n">
         <v>188.15</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>190</v>
+      </c>
+      <c r="L10" t="n">
+        <v>190</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +815,25 @@
         <v>13206.446</v>
       </c>
       <c r="G11" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="H11" t="n">
         <v>188.2</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>190</v>
+      </c>
+      <c r="L11" t="n">
+        <v>190</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +857,29 @@
         <v>2934</v>
       </c>
       <c r="G12" t="n">
+        <v>190.5333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>188.25</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>191</v>
+      </c>
+      <c r="L12" t="n">
+        <v>190</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +903,29 @@
         <v>12.6145</v>
       </c>
       <c r="G13" t="n">
+        <v>190.6666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>188.3166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>191</v>
+      </c>
+      <c r="L13" t="n">
+        <v>190</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +949,21 @@
         <v>4570.2242</v>
       </c>
       <c r="G14" t="n">
+        <v>190.7333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>188.35</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +987,21 @@
         <v>9640.8462</v>
       </c>
       <c r="G15" t="n">
+        <v>190.7333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>188.35</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1025,21 @@
         <v>3393.12</v>
       </c>
       <c r="G16" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="H16" t="n">
         <v>188.3833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1063,25 @@
         <v>1750</v>
       </c>
       <c r="G17" t="n">
+        <v>190.8666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>188.4166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>192</v>
+      </c>
+      <c r="L17" t="n">
+        <v>192</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1105,27 @@
         <v>0.5782</v>
       </c>
       <c r="G18" t="n">
+        <v>190.9333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>188.45</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>192</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1149,27 @@
         <v>2482.0714</v>
       </c>
       <c r="G19" t="n">
+        <v>191.0666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>188.5</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>192</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1193,21 @@
         <v>1980</v>
       </c>
       <c r="G20" t="n">
+        <v>191.2666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>188.6166666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1231,21 @@
         <v>159.7397</v>
       </c>
       <c r="G21" t="n">
+        <v>191.4666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>188.6833333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1269,21 @@
         <v>1687.8876</v>
       </c>
       <c r="G22" t="n">
+        <v>191.7333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>188.8166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1307,21 @@
         <v>458.0896</v>
       </c>
       <c r="G23" t="n">
+        <v>192</v>
+      </c>
+      <c r="H23" t="n">
         <v>188.9333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1345,21 @@
         <v>1534.6998</v>
       </c>
       <c r="G24" t="n">
+        <v>192.2666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>189.0666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1383,21 @@
         <v>94.7132</v>
       </c>
       <c r="G25" t="n">
+        <v>192.5333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>189.2166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1421,21 @@
         <v>771.7487</v>
       </c>
       <c r="G26" t="n">
+        <v>192.7333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>189.3666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1459,21 @@
         <v>4056.2886</v>
       </c>
       <c r="G27" t="n">
+        <v>192.9333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>189.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1497,21 @@
         <v>1509.1261</v>
       </c>
       <c r="G28" t="n">
+        <v>193.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>189.6333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1535,21 @@
         <v>5084.2708</v>
       </c>
       <c r="G29" t="n">
+        <v>193.2666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>189.7666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1573,21 @@
         <v>544.4956</v>
       </c>
       <c r="G30" t="n">
+        <v>193.5333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>189.9166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1611,21 @@
         <v>2550.3048</v>
       </c>
       <c r="G31" t="n">
+        <v>193.7333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>190.0666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1649,21 @@
         <v>12426.2519</v>
       </c>
       <c r="G32" t="n">
+        <v>193.9333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>190.2166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1687,21 @@
         <v>16</v>
       </c>
       <c r="G33" t="n">
+        <v>194.2</v>
+      </c>
+      <c r="H33" t="n">
         <v>190.3333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1725,21 @@
         <v>15.7474</v>
       </c>
       <c r="G34" t="n">
+        <v>194.3333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>190.4666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1763,21 @@
         <v>544.4956</v>
       </c>
       <c r="G35" t="n">
+        <v>194.2666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>190.5666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1801,21 @@
         <v>44</v>
       </c>
       <c r="G36" t="n">
+        <v>194.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>190.6833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1839,21 @@
         <v>5512.9735</v>
       </c>
       <c r="G37" t="n">
+        <v>194.2</v>
+      </c>
+      <c r="H37" t="n">
         <v>190.8</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1877,21 @@
         <v>3</v>
       </c>
       <c r="G38" t="n">
+        <v>194.1333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>190.9333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1915,21 @@
         <v>544.4956</v>
       </c>
       <c r="G39" t="n">
+        <v>194.2</v>
+      </c>
+      <c r="H39" t="n">
         <v>191.0833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1953,21 @@
         <v>587.3063</v>
       </c>
       <c r="G40" t="n">
+        <v>194.3333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>191.25</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1991,21 @@
         <v>4</v>
       </c>
       <c r="G41" t="n">
+        <v>194.3333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>191.4</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2029,21 @@
         <v>50.0169</v>
       </c>
       <c r="G42" t="n">
+        <v>194.2666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>191.4833333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2067,21 @@
         <v>5053.4723</v>
       </c>
       <c r="G43" t="n">
+        <v>194.2</v>
+      </c>
+      <c r="H43" t="n">
         <v>191.5833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2105,21 @@
         <v>5</v>
       </c>
       <c r="G44" t="n">
+        <v>194.2666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>191.7166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2143,21 @@
         <v>945.7408</v>
       </c>
       <c r="G45" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="H45" t="n">
         <v>191.9</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2181,21 @@
         <v>1610.4443</v>
       </c>
       <c r="G46" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="H46" t="n">
         <v>192.0166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2219,21 @@
         <v>15144.5317</v>
       </c>
       <c r="G47" t="n">
+        <v>194.2</v>
+      </c>
+      <c r="H47" t="n">
         <v>192.0833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2257,21 @@
         <v>430.261</v>
       </c>
       <c r="G48" t="n">
+        <v>194.0666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>192.1666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2295,21 @@
         <v>2058.7605</v>
       </c>
       <c r="G49" t="n">
+        <v>194.0666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>192.2666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2333,21 @@
         <v>997.5</v>
       </c>
       <c r="G50" t="n">
+        <v>194</v>
+      </c>
+      <c r="H50" t="n">
         <v>192.3166666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2371,21 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
+        <v>194</v>
+      </c>
+      <c r="H51" t="n">
         <v>192.4</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2409,21 @@
         <v>1144</v>
       </c>
       <c r="G52" t="n">
+        <v>194.0666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>192.4833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2447,21 @@
         <v>17.5192</v>
       </c>
       <c r="G53" t="n">
+        <v>194.1333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>192.5666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2485,21 @@
         <v>100</v>
       </c>
       <c r="G54" t="n">
+        <v>194.0666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>192.65</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2523,21 @@
         <v>938.8396</v>
       </c>
       <c r="G55" t="n">
+        <v>193.9333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>192.75</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2561,21 @@
         <v>934.8396</v>
       </c>
       <c r="G56" t="n">
+        <v>193.9333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>192.85</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2599,21 @@
         <v>13508.4071</v>
       </c>
       <c r="G57" t="n">
+        <v>193.8666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>192.9</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2637,21 @@
         <v>768809.1152999999</v>
       </c>
       <c r="G58" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="H58" t="n">
         <v>192.9333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2675,21 @@
         <v>485995.8227</v>
       </c>
       <c r="G59" t="n">
+        <v>193.4666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>192.9333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2713,21 @@
         <v>2590000</v>
       </c>
       <c r="G60" t="n">
+        <v>193.0666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>192.9333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2751,21 @@
         <v>1740000</v>
       </c>
       <c r="G61" t="n">
+        <v>192.7333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>192.9166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2789,21 @@
         <v>1881073.2774</v>
       </c>
       <c r="G62" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="H62" t="n">
         <v>192.9</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2827,21 @@
         <v>2590000</v>
       </c>
       <c r="G63" t="n">
+        <v>192.3333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>192.8833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2865,21 @@
         <v>2620298.0358</v>
       </c>
       <c r="G64" t="n">
+        <v>192</v>
+      </c>
+      <c r="H64" t="n">
         <v>192.8666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2903,21 @@
         <v>2659701.9642</v>
       </c>
       <c r="G65" t="n">
+        <v>191.8666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>192.85</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2941,21 @@
         <v>2630408.0358</v>
       </c>
       <c r="G66" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="H66" t="n">
         <v>192.8333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2979,21 @@
         <v>2600000</v>
       </c>
       <c r="G67" t="n">
+        <v>191.3333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>192.8333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3017,21 @@
         <v>2619801.4392</v>
       </c>
       <c r="G68" t="n">
+        <v>191.0666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>192.8333333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3055,21 @@
         <v>2650208.5608</v>
       </c>
       <c r="G69" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="H69" t="n">
         <v>192.8333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3093,21 @@
         <v>2630000</v>
       </c>
       <c r="G70" t="n">
+        <v>190.5333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>192.8333333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3131,21 @@
         <v>2629791.4392</v>
       </c>
       <c r="G71" t="n">
+        <v>190.2666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>192.8166666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3169,21 @@
         <v>2600208.5608</v>
       </c>
       <c r="G72" t="n">
+        <v>190.1333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>192.8</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3207,21 @@
         <v>2660000</v>
       </c>
       <c r="G73" t="n">
+        <v>190</v>
+      </c>
+      <c r="H73" t="n">
         <v>192.7666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3245,21 @@
         <v>2630768.4105</v>
       </c>
       <c r="G74" t="n">
+        <v>190</v>
+      </c>
+      <c r="H74" t="n">
         <v>192.75</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3283,21 @@
         <v>2649023.0287</v>
       </c>
       <c r="G75" t="n">
+        <v>190</v>
+      </c>
+      <c r="H75" t="n">
         <v>192.75</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3321,21 @@
         <v>1950976.9713</v>
       </c>
       <c r="G76" t="n">
+        <v>190</v>
+      </c>
+      <c r="H76" t="n">
         <v>192.7166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3359,21 @@
         <v>372754.3295</v>
       </c>
       <c r="G77" t="n">
+        <v>190</v>
+      </c>
+      <c r="H77" t="n">
         <v>192.6833333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3397,21 @@
         <v>2640000</v>
       </c>
       <c r="G78" t="n">
+        <v>190</v>
+      </c>
+      <c r="H78" t="n">
         <v>192.65</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3435,21 @@
         <v>2652114.5</v>
       </c>
       <c r="G79" t="n">
+        <v>190</v>
+      </c>
+      <c r="H79" t="n">
         <v>192.6</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3473,21 @@
         <v>1024839.3923</v>
       </c>
       <c r="G80" t="n">
+        <v>190</v>
+      </c>
+      <c r="H80" t="n">
         <v>192.5333333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3511,21 @@
         <v>2215333.218</v>
       </c>
       <c r="G81" t="n">
+        <v>189.9333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>192.45</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3549,21 @@
         <v>2654666.782</v>
       </c>
       <c r="G82" t="n">
+        <v>189.8666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>192.3666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3587,21 @@
         <v>2675333.218</v>
       </c>
       <c r="G83" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>192.2833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3625,21 @@
         <v>654666.782</v>
       </c>
       <c r="G84" t="n">
+        <v>189.7333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>192.2</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3663,21 @@
         <v>487282</v>
       </c>
       <c r="G85" t="n">
+        <v>189.7333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>192.1333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3701,21 @@
         <v>2408828</v>
       </c>
       <c r="G86" t="n">
+        <v>189.7333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>192.0666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3739,21 @@
         <v>775851.6237</v>
       </c>
       <c r="G87" t="n">
+        <v>189.7333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>192</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3777,21 @@
         <v>972344.9318</v>
       </c>
       <c r="G88" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="H88" t="n">
         <v>191.95</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3815,25 @@
         <v>1782200</v>
       </c>
       <c r="G89" t="n">
+        <v>189.8666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>191.9</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>191</v>
+      </c>
+      <c r="L89" t="n">
+        <v>191</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3857,27 @@
         <v>445200</v>
       </c>
       <c r="G90" t="n">
+        <v>189.9333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>191.85</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>191</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3901,29 @@
         <v>777617.7275</v>
       </c>
       <c r="G91" t="n">
+        <v>190</v>
+      </c>
+      <c r="H91" t="n">
         <v>191.7833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>191</v>
+      </c>
+      <c r="L91" t="n">
+        <v>191</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3947,29 @@
         <v>1944305</v>
       </c>
       <c r="G92" t="n">
+        <v>190.0666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>191.7166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>191</v>
+      </c>
+      <c r="L92" t="n">
+        <v>191</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3993,27 @@
         <v>912066</v>
       </c>
       <c r="G93" t="n">
+        <v>190.0666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>191.6166666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>191</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4037,29 @@
         <v>2650000</v>
       </c>
       <c r="G94" t="n">
+        <v>190.0666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>191.5333333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>190</v>
+      </c>
+      <c r="L94" t="n">
+        <v>191</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4083,27 @@
         <v>1673790.7751</v>
       </c>
       <c r="G95" t="n">
+        <v>190.1333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>191.5</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>191</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,22 +4127,27 @@
         <v>995072.5968000001</v>
       </c>
       <c r="G96" t="n">
+        <v>190.2666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>191.45</v>
       </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>191</v>
-      </c>
-      <c r="K96" t="n">
-        <v>191</v>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>191</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3777,24 +4171,27 @@
         <v>1572096</v>
       </c>
       <c r="G97" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="H97" t="n">
         <v>191.4166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>191</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>191</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3818,26 +4215,27 @@
         <v>1560320</v>
       </c>
       <c r="G98" t="n">
+        <v>190.5333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>191.3833333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>191</v>
-      </c>
-      <c r="K98" t="n">
-        <v>191</v>
-      </c>
-      <c r="L98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>191</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,22 +4259,27 @@
         <v>1536768</v>
       </c>
       <c r="G99" t="n">
+        <v>190.6666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>191.3166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>191</v>
-      </c>
-      <c r="K99" t="n">
-        <v>191</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>191</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,24 +4303,27 @@
         <v>1554431.4032</v>
       </c>
       <c r="G100" t="n">
+        <v>190.7333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>191.2333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>191</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>191</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3941,24 +4347,27 @@
         <v>1572096.5968</v>
       </c>
       <c r="G101" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="H101" t="n">
         <v>191.1833333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>191</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>191</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4391,27 @@
         <v>23552</v>
       </c>
       <c r="G102" t="n">
+        <v>190.8666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>191.15</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>191</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,18 +4435,29 @@
         <v>2.496</v>
       </c>
       <c r="G103" t="n">
+        <v>190.9333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>191.1333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>191</v>
+      </c>
+      <c r="L103" t="n">
+        <v>191</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,18 +4481,27 @@
         <v>5019.2475</v>
       </c>
       <c r="G104" t="n">
+        <v>191.0666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>191.1</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>191</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,18 +4525,27 @@
         <v>1900.5959</v>
       </c>
       <c r="G105" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="H105" t="n">
         <v>191.05</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>191</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,18 +4569,27 @@
         <v>399.2158</v>
       </c>
       <c r="G106" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="H106" t="n">
         <v>191.0333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>191</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,18 +4613,27 @@
         <v>582.6758</v>
       </c>
       <c r="G107" t="n">
+        <v>191.5333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>191.05</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>191</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,18 +4657,27 @@
         <v>124.8685</v>
       </c>
       <c r="G108" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="H108" t="n">
         <v>191.05</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>191</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4227,18 +4701,27 @@
         <v>5888.5968</v>
       </c>
       <c r="G109" t="n">
+        <v>192</v>
+      </c>
+      <c r="H109" t="n">
         <v>191.0166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>191</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,18 +4745,27 @@
         <v>1.7396</v>
       </c>
       <c r="G110" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="H110" t="n">
         <v>191.05</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>191</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,18 +4789,27 @@
         <v>32330.8166</v>
       </c>
       <c r="G111" t="n">
+        <v>192.3333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>191.0333333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>191</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,18 +4833,27 @@
         <v>11110.7864</v>
       </c>
       <c r="G112" t="n">
+        <v>192.4666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>191.0166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>191</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,18 +4877,27 @@
         <v>1000</v>
       </c>
       <c r="G113" t="n">
+        <v>192.6666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>191.0166666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>191</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,18 +4921,27 @@
         <v>1794.8069</v>
       </c>
       <c r="G114" t="n">
+        <v>192.8666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>191.0166666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>191</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,18 +4965,27 @@
         <v>1.0841</v>
       </c>
       <c r="G115" t="n">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>191.0333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>191</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,18 +5009,27 @@
         <v>3427.8025</v>
       </c>
       <c r="G116" t="n">
+        <v>193.2666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>191.0166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>191</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,18 +5053,27 @@
         <v>1244.5944</v>
       </c>
       <c r="G117" t="n">
-        <v>191</v>
+        <v>193.2666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>191</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,18 +5097,27 @@
         <v>1334.2031</v>
       </c>
       <c r="G118" t="n">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>190.9666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>191</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,18 +5141,29 @@
         <v>5667.2253</v>
       </c>
       <c r="G119" t="n">
+        <v>193</v>
+      </c>
+      <c r="H119" t="n">
         <v>190.9833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>190</v>
+      </c>
+      <c r="L119" t="n">
+        <v>191</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,18 +5187,29 @@
         <v>289.0499</v>
       </c>
       <c r="G120" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="H120" t="n">
         <v>190.9833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>191</v>
+      </c>
+      <c r="L120" t="n">
+        <v>191</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4647,18 +5233,29 @@
         <v>82.3648</v>
       </c>
       <c r="G121" t="n">
+        <v>192.4666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>190.9666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>190</v>
+      </c>
+      <c r="L121" t="n">
+        <v>191</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,18 +5279,29 @@
         <v>1.5844</v>
       </c>
       <c r="G122" t="n">
+        <v>192.2666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>190.9666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>189</v>
+      </c>
+      <c r="L122" t="n">
+        <v>191</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,18 +5325,29 @@
         <v>2430.4578</v>
       </c>
       <c r="G123" t="n">
+        <v>192</v>
+      </c>
+      <c r="H123" t="n">
         <v>190.9666666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>190</v>
+      </c>
+      <c r="L123" t="n">
+        <v>191</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,18 +5371,29 @@
         <v>1915.2092</v>
       </c>
       <c r="G124" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="H124" t="n">
         <v>190.9666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>190</v>
+      </c>
+      <c r="L124" t="n">
+        <v>191</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,18 +5417,29 @@
         <v>5</v>
       </c>
       <c r="G125" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="H125" t="n">
         <v>190.9333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>190</v>
+      </c>
+      <c r="L125" t="n">
+        <v>191</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,18 +5463,29 @@
         <v>1.8052</v>
       </c>
       <c r="G126" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="H126" t="n">
         <v>190.9333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>188</v>
+      </c>
+      <c r="L126" t="n">
+        <v>191</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,18 +5509,29 @@
         <v>1296</v>
       </c>
       <c r="G127" t="n">
+        <v>191</v>
+      </c>
+      <c r="H127" t="n">
         <v>190.9333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>190</v>
+      </c>
+      <c r="L127" t="n">
+        <v>191</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5555,29 @@
         <v>406</v>
       </c>
       <c r="G128" t="n">
+        <v>190.7333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>190.9333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>190</v>
+      </c>
+      <c r="L128" t="n">
+        <v>191</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +5601,29 @@
         <v>1944.8369</v>
       </c>
       <c r="G129" t="n">
+        <v>190.4666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>190.9333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>190</v>
+      </c>
+      <c r="L129" t="n">
+        <v>191</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +5647,29 @@
         <v>343.5</v>
       </c>
       <c r="G130" t="n">
+        <v>190.1333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>190.9333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>190</v>
+      </c>
+      <c r="L130" t="n">
+        <v>191</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +5693,29 @@
         <v>5300</v>
       </c>
       <c r="G131" t="n">
+        <v>189.9333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>190.9333333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>190</v>
+      </c>
+      <c r="L131" t="n">
+        <v>191</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +5739,29 @@
         <v>4553.2371</v>
       </c>
       <c r="G132" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="H132" t="n">
         <v>190.9166666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>190</v>
+      </c>
+      <c r="L132" t="n">
+        <v>191</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,18 +5785,29 @@
         <v>1175.7988</v>
       </c>
       <c r="G133" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="H133" t="n">
         <v>190.9166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>189</v>
+      </c>
+      <c r="L133" t="n">
+        <v>191</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +5831,29 @@
         <v>1331.6128</v>
       </c>
       <c r="G134" t="n">
+        <v>189.7333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>190.9166666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>190</v>
+      </c>
+      <c r="L134" t="n">
+        <v>191</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,18 +5877,29 @@
         <v>501.6389</v>
       </c>
       <c r="G135" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="H135" t="n">
         <v>190.9333333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>190</v>
+      </c>
+      <c r="L135" t="n">
+        <v>191</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,18 +5923,29 @@
         <v>72366.6618</v>
       </c>
       <c r="G136" t="n">
+        <v>189.9333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>190.95</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>191</v>
+      </c>
+      <c r="L136" t="n">
+        <v>191</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,18 +5969,29 @@
         <v>1307756.3382</v>
       </c>
       <c r="G137" t="n">
+        <v>190</v>
+      </c>
+      <c r="H137" t="n">
         <v>190.9666666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>191</v>
+      </c>
+      <c r="L137" t="n">
+        <v>191</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,18 +6015,29 @@
         <v>144944.1334</v>
       </c>
       <c r="G138" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="H138" t="n">
         <v>191.0166666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>191</v>
+      </c>
+      <c r="L138" t="n">
+        <v>191</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,18 +6061,29 @@
         <v>7802.0552</v>
       </c>
       <c r="G139" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="H139" t="n">
         <v>191.1166666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>193</v>
+      </c>
+      <c r="L139" t="n">
+        <v>191</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,18 +6107,27 @@
         <v>4749.9227</v>
       </c>
       <c r="G140" t="n">
+        <v>191.0666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>191.2</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>191</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5347,18 +6151,27 @@
         <v>11.873</v>
       </c>
       <c r="G141" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="H141" t="n">
         <v>191.3</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>191</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,18 +6195,27 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
+        <v>191.7333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>191.4</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>191</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,18 +6239,27 @@
         <v>1954</v>
       </c>
       <c r="G143" t="n">
+        <v>192.0666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>191.5</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>191</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,18 +6283,27 @@
         <v>172.1224</v>
       </c>
       <c r="G144" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="H144" t="n">
         <v>191.6</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>191</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5487,18 +6327,27 @@
         <v>2950.5914</v>
       </c>
       <c r="G145" t="n">
+        <v>192.7333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>191.6833333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>191</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,18 +6371,27 @@
         <v>1883.5518</v>
       </c>
       <c r="G146" t="n">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>191.7833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>191</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,18 +6415,27 @@
         <v>2327.466</v>
       </c>
       <c r="G147" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="H147" t="n">
         <v>191.8833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>191</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,18 +6459,27 @@
         <v>4467.0273</v>
       </c>
       <c r="G148" t="n">
+        <v>194.0666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>191.9833333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>191</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5627,18 +6503,27 @@
         <v>1390.59852020202</v>
       </c>
       <c r="G149" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="H149" t="n">
         <v>192.1</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>191</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,18 +6547,27 @@
         <v>4036.597127049388</v>
       </c>
       <c r="G150" t="n">
+        <v>195.1333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>192.2333333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>191</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,18 +6591,27 @@
         <v>1010.10101010101</v>
       </c>
       <c r="G151" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="H151" t="n">
         <v>192.35</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>191</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,18 +6635,27 @@
         <v>505.050505050505</v>
       </c>
       <c r="G152" t="n">
+        <v>196.0666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>192.4666666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>191</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,18 +6679,27 @@
         <v>1515.151515151515</v>
       </c>
       <c r="G153" t="n">
+        <v>196.4</v>
+      </c>
+      <c r="H153" t="n">
         <v>192.6</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>191</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,18 +6723,27 @@
         <v>1.9291</v>
       </c>
       <c r="G154" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="H154" t="n">
         <v>192.75</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>191</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,18 +6767,27 @@
         <v>28559.416</v>
       </c>
       <c r="G155" t="n">
+        <v>196.9333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>192.9</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>191</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,18 +6811,27 @@
         <v>220</v>
       </c>
       <c r="G156" t="n">
+        <v>197.2666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>193.05</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>191</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,18 +6855,27 @@
         <v>155.205</v>
       </c>
       <c r="G157" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="H157" t="n">
         <v>193.2</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>191</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5942,18 +6899,27 @@
         <v>237.4724</v>
       </c>
       <c r="G158" t="n">
+        <v>197.9333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>193.35</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>191</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,19 +6943,28 @@
         <v>2458.656055778894</v>
       </c>
       <c r="G159" t="n">
+        <v>198.2666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>193.5</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
+      <c r="L159" t="n">
+        <v>191</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1.042120418848168</v>
       </c>
     </row>
     <row r="160">
@@ -6012,18 +6987,21 @@
         <v>2329.0172</v>
       </c>
       <c r="G160" t="n">
+        <v>198.5333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>193.6333333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6047,18 +7025,21 @@
         <v>65.1199</v>
       </c>
       <c r="G161" t="n">
+        <v>198.8666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>193.8</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,18 +7063,21 @@
         <v>159.4228</v>
       </c>
       <c r="G162" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="H162" t="n">
         <v>193.9666666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,18 +7101,21 @@
         <v>42144.1498</v>
       </c>
       <c r="G163" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="H163" t="n">
         <v>194.1</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,18 +7139,21 @@
         <v>158.9271</v>
       </c>
       <c r="G164" t="n">
+        <v>199.5333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>194.2166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6187,18 +7177,21 @@
         <v>5476.9564</v>
       </c>
       <c r="G165" t="n">
+        <v>199.4666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>194.3</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,18 +7215,21 @@
         <v>1635.525</v>
       </c>
       <c r="G166" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="H166" t="n">
         <v>194.4</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6257,18 +7253,21 @@
         <v>4333.2871</v>
       </c>
       <c r="G167" t="n">
+        <v>199.6666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>194.5</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,18 +7291,21 @@
         <v>530.7541</v>
       </c>
       <c r="G168" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="H168" t="n">
         <v>194.6</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6327,18 +7329,21 @@
         <v>106.383</v>
       </c>
       <c r="G169" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="H169" t="n">
         <v>194.7</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6362,18 +7367,21 @@
         <v>80</v>
       </c>
       <c r="G170" t="n">
+        <v>199.6666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>194.7666666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6397,18 +7405,21 @@
         <v>6042.32</v>
       </c>
       <c r="G171" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="H171" t="n">
         <v>194.8666666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6432,18 +7443,21 @@
         <v>1589.9742</v>
       </c>
       <c r="G172" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="H172" t="n">
         <v>194.9833333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6467,18 +7481,21 @@
         <v>15184.9077</v>
       </c>
       <c r="G173" t="n">
+        <v>199.4666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>195.05</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6502,18 +7519,21 @@
         <v>6604.9452</v>
       </c>
       <c r="G174" t="n">
+        <v>199.4666666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>195.15</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6537,18 +7557,21 @@
         <v>199</v>
       </c>
       <c r="G175" t="n">
+        <v>199.4666666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>195.2166666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6572,18 +7595,21 @@
         <v>199</v>
       </c>
       <c r="G176" t="n">
+        <v>199.3333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>195.3166666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6607,18 +7633,21 @@
         <v>7459.1067</v>
       </c>
       <c r="G177" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="H177" t="n">
         <v>195.45</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6642,18 +7671,21 @@
         <v>2302.6377</v>
       </c>
       <c r="G178" t="n">
+        <v>199.1333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>195.6</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6677,18 +7709,21 @@
         <v>2000</v>
       </c>
       <c r="G179" t="n">
+        <v>199.0666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>195.7333333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6712,18 +7747,21 @@
         <v>12036.8011</v>
       </c>
       <c r="G180" t="n">
+        <v>199.1333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>195.8833333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6747,18 +7785,21 @@
         <v>2970.711723529412</v>
       </c>
       <c r="G181" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="H181" t="n">
         <v>196.1333333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6782,18 +7823,21 @@
         <v>73225.1658</v>
       </c>
       <c r="G182" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="H182" t="n">
         <v>196.3833333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6817,18 +7861,21 @@
         <v>36</v>
       </c>
       <c r="G183" t="n">
+        <v>199.8666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>196.5666666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6852,18 +7899,21 @@
         <v>5362.3216</v>
       </c>
       <c r="G184" t="n">
+        <v>200</v>
+      </c>
+      <c r="H184" t="n">
         <v>196.75</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6887,18 +7937,21 @@
         <v>1.5074</v>
       </c>
       <c r="G185" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="H185" t="n">
         <v>196.9666666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6922,18 +7975,21 @@
         <v>254.1666666666667</v>
       </c>
       <c r="G186" t="n">
+        <v>200.5333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>197.2</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6957,18 +8013,21 @@
         <v>1062.32</v>
       </c>
       <c r="G187" t="n">
+        <v>200.6666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>197.4</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6992,18 +8051,21 @@
         <v>159.0243</v>
       </c>
       <c r="G188" t="n">
+        <v>200.8666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>197.5833333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,18 +8089,21 @@
         <v>995.02</v>
       </c>
       <c r="G189" t="n">
+        <v>200.9333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>197.7666666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7062,18 +8127,21 @@
         <v>393.1125</v>
       </c>
       <c r="G190" t="n">
+        <v>201</v>
+      </c>
+      <c r="H190" t="n">
         <v>197.9333333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7097,18 +8165,21 @@
         <v>586.8875</v>
       </c>
       <c r="G191" t="n">
+        <v>201.0666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>198.1</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7132,18 +8203,21 @@
         <v>128</v>
       </c>
       <c r="G192" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="H192" t="n">
         <v>198.3</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7167,18 +8241,21 @@
         <v>883.7935</v>
       </c>
       <c r="G193" t="n">
+        <v>201.2666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>198.4666666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7202,18 +8279,21 @@
         <v>1674.3703</v>
       </c>
       <c r="G194" t="n">
+        <v>201.3333333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>198.6333333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7237,18 +8317,21 @@
         <v>1052.3625</v>
       </c>
       <c r="G195" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="H195" t="n">
         <v>198.7833333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7272,18 +8355,21 @@
         <v>599.7524</v>
       </c>
       <c r="G196" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="H196" t="n">
         <v>199</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7307,18 +8393,21 @@
         <v>128.9558</v>
       </c>
       <c r="G197" t="n">
+        <v>201</v>
+      </c>
+      <c r="H197" t="n">
         <v>199.1333333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,18 +8431,21 @@
         <v>5157.2927</v>
       </c>
       <c r="G198" t="n">
+        <v>200.9333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>199.25</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7377,18 +8469,21 @@
         <v>129.4573</v>
       </c>
       <c r="G199" t="n">
+        <v>200.8666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>199.3166666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7412,18 +8507,21 @@
         <v>4381.6808</v>
       </c>
       <c r="G200" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="H200" t="n">
         <v>199.4</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7447,18 +8545,21 @@
         <v>295.7949</v>
       </c>
       <c r="G201" t="n">
+        <v>200.6666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>199.5166666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,18 +8583,21 @@
         <v>330.5683</v>
       </c>
       <c r="G202" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="H202" t="n">
         <v>199.6166666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7517,18 +8621,21 @@
         <v>995.02</v>
       </c>
       <c r="G203" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="H203" t="n">
         <v>199.7166666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7552,18 +8659,21 @@
         <v>6520.8383</v>
       </c>
       <c r="G204" t="n">
+        <v>200.7333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>199.85</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7587,18 +8697,21 @@
         <v>4712.5628</v>
       </c>
       <c r="G205" t="n">
+        <v>200.8666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>199.9666666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7622,18 +8735,21 @@
         <v>4859.7012</v>
       </c>
       <c r="G206" t="n">
+        <v>201.0666666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>200.0833333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7657,18 +8773,21 @@
         <v>100</v>
       </c>
       <c r="G207" t="n">
+        <v>201</v>
+      </c>
+      <c r="H207" t="n">
         <v>200.15</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7692,18 +8811,21 @@
         <v>3054.931</v>
       </c>
       <c r="G208" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="H208" t="n">
         <v>200.25</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7727,18 +8849,21 @@
         <v>11.9746</v>
       </c>
       <c r="G209" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="H209" t="n">
         <v>200.3333333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7762,18 +8887,21 @@
         <v>2847</v>
       </c>
       <c r="G210" t="n">
+        <v>201.4666666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>200.3666666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7797,18 +8925,21 @@
         <v>1918.7562</v>
       </c>
       <c r="G211" t="n">
+        <v>201.2666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>200.4166666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7832,18 +8963,21 @@
         <v>410</v>
       </c>
       <c r="G212" t="n">
+        <v>201.3333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>200.45</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7867,18 +9001,21 @@
         <v>10388.8632</v>
       </c>
       <c r="G213" t="n">
+        <v>201.3333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>200.4833333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7902,18 +9039,21 @@
         <v>1012.0555</v>
       </c>
       <c r="G214" t="n">
+        <v>201.3333333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>200.5</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7937,18 +9077,21 @@
         <v>4473.8728</v>
       </c>
       <c r="G215" t="n">
+        <v>201.3333333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>200.5</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7972,18 +9115,21 @@
         <v>3715.2085</v>
       </c>
       <c r="G216" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="H216" t="n">
         <v>200.5</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8007,18 +9153,21 @@
         <v>3.994</v>
       </c>
       <c r="G217" t="n">
+        <v>201</v>
+      </c>
+      <c r="H217" t="n">
         <v>200.4666666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8042,18 +9191,21 @@
         <v>167</v>
       </c>
       <c r="G218" t="n">
+        <v>200.9333333333333</v>
+      </c>
+      <c r="H218" t="n">
         <v>200.4666666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8077,18 +9229,21 @@
         <v>6.9748</v>
       </c>
       <c r="G219" t="n">
+        <v>200.6666666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>200.45</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8112,18 +9267,21 @@
         <v>4186.9203</v>
       </c>
       <c r="G220" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="H220" t="n">
         <v>200.4333333333333</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8147,18 +9305,21 @@
         <v>21717.867383</v>
       </c>
       <c r="G221" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="H221" t="n">
         <v>200.4166666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8182,18 +9343,21 @@
         <v>5051.505</v>
       </c>
       <c r="G222" t="n">
+        <v>200.1333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>200.3833333333333</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8217,18 +9381,21 @@
         <v>11926.632</v>
       </c>
       <c r="G223" t="n">
+        <v>199.6666666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>200.3166666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8252,18 +9419,21 @@
         <v>21552.7369</v>
       </c>
       <c r="G224" t="n">
+        <v>199.1333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>200.2333333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8287,18 +9457,21 @@
         <v>15075.37688442211</v>
       </c>
       <c r="G225" t="n">
+        <v>199</v>
+      </c>
+      <c r="H225" t="n">
         <v>200.25</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8322,18 +9495,21 @@
         <v>800.875</v>
       </c>
       <c r="G226" t="n">
+        <v>198.6666666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>200.1833333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8357,18 +9533,21 @@
         <v>50.50505050505051</v>
       </c>
       <c r="G227" t="n">
+        <v>198.5333333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>200.1666666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8392,18 +9571,21 @@
         <v>60</v>
       </c>
       <c r="G228" t="n">
+        <v>198.2666666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>200.1</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8427,18 +9609,21 @@
         <v>50.25125628140704</v>
       </c>
       <c r="G229" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="H229" t="n">
         <v>200.1</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8462,18 +9647,21 @@
         <v>10909.56043321859</v>
       </c>
       <c r="G230" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="H230" t="n">
         <v>200.1333333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8497,18 +9685,21 @@
         <v>70</v>
       </c>
       <c r="G231" t="n">
+        <v>198</v>
+      </c>
+      <c r="H231" t="n">
         <v>200.1</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8532,18 +9723,21 @@
         <v>10882.2865</v>
       </c>
       <c r="G232" t="n">
+        <v>197.8</v>
+      </c>
+      <c r="H232" t="n">
         <v>200.0166666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8567,18 +9761,21 @@
         <v>98</v>
       </c>
       <c r="G233" t="n">
+        <v>197.6666666666667</v>
+      </c>
+      <c r="H233" t="n">
         <v>200.0166666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8602,18 +9799,21 @@
         <v>745.1651000000001</v>
       </c>
       <c r="G234" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="H234" t="n">
         <v>199.9833333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8637,18 +9837,401 @@
         <v>643.6982</v>
       </c>
       <c r="G235" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="H235" t="n">
         <v>199.9666666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>198</v>
+      </c>
+      <c r="C236" t="n">
+        <v>198</v>
+      </c>
+      <c r="D236" t="n">
+        <v>198</v>
+      </c>
+      <c r="E236" t="n">
+        <v>198</v>
+      </c>
+      <c r="F236" t="n">
+        <v>13.1367</v>
+      </c>
+      <c r="G236" t="n">
+        <v>197.4666666666667</v>
+      </c>
+      <c r="H236" t="n">
+        <v>199.95</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>198</v>
+      </c>
+      <c r="C237" t="n">
+        <v>198</v>
+      </c>
+      <c r="D237" t="n">
+        <v>198</v>
+      </c>
+      <c r="E237" t="n">
+        <v>198</v>
+      </c>
+      <c r="F237" t="n">
+        <v>84.16679999999999</v>
+      </c>
+      <c r="G237" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="H237" t="n">
+        <v>199.9333333333333</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>198</v>
+      </c>
+      <c r="C238" t="n">
+        <v>197</v>
+      </c>
+      <c r="D238" t="n">
+        <v>198</v>
+      </c>
+      <c r="E238" t="n">
+        <v>197</v>
+      </c>
+      <c r="F238" t="n">
+        <v>5090.8323</v>
+      </c>
+      <c r="G238" t="n">
+        <v>197.4666666666667</v>
+      </c>
+      <c r="H238" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>199</v>
+      </c>
+      <c r="C239" t="n">
+        <v>199</v>
+      </c>
+      <c r="D239" t="n">
+        <v>199</v>
+      </c>
+      <c r="E239" t="n">
+        <v>199</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2.1193</v>
+      </c>
+      <c r="G239" t="n">
+        <v>197.7333333333333</v>
+      </c>
+      <c r="H239" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>198</v>
+      </c>
+      <c r="C240" t="n">
+        <v>198</v>
+      </c>
+      <c r="D240" t="n">
+        <v>198</v>
+      </c>
+      <c r="E240" t="n">
+        <v>198</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2102.9012</v>
+      </c>
+      <c r="G240" t="n">
+        <v>197.6666666666667</v>
+      </c>
+      <c r="H240" t="n">
+        <v>199.8833333333333</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>199</v>
+      </c>
+      <c r="C241" t="n">
+        <v>200</v>
+      </c>
+      <c r="D241" t="n">
+        <v>200</v>
+      </c>
+      <c r="E241" t="n">
+        <v>199</v>
+      </c>
+      <c r="F241" t="n">
+        <v>316.4694035</v>
+      </c>
+      <c r="G241" t="n">
+        <v>197.9333333333333</v>
+      </c>
+      <c r="H241" t="n">
+        <v>199.8166666666667</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>200</v>
+      </c>
+      <c r="C242" t="n">
+        <v>202</v>
+      </c>
+      <c r="D242" t="n">
+        <v>202</v>
+      </c>
+      <c r="E242" t="n">
+        <v>200</v>
+      </c>
+      <c r="F242" t="n">
+        <v>33373.914424</v>
+      </c>
+      <c r="G242" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="H242" t="n">
+        <v>199.7666666666667</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>202</v>
+      </c>
+      <c r="C243" t="n">
+        <v>202</v>
+      </c>
+      <c r="D243" t="n">
+        <v>203</v>
+      </c>
+      <c r="E243" t="n">
+        <v>202</v>
+      </c>
+      <c r="F243" t="n">
+        <v>12782.547676</v>
+      </c>
+      <c r="G243" t="n">
+        <v>198.6</v>
+      </c>
+      <c r="H243" t="n">
+        <v>199.7833333333333</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>202</v>
+      </c>
+      <c r="C244" t="n">
+        <v>202</v>
+      </c>
+      <c r="D244" t="n">
+        <v>202</v>
+      </c>
+      <c r="E244" t="n">
+        <v>202</v>
+      </c>
+      <c r="F244" t="n">
+        <v>596.6930693069307</v>
+      </c>
+      <c r="G244" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="H244" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>202</v>
+      </c>
+      <c r="C245" t="n">
+        <v>202</v>
+      </c>
+      <c r="D245" t="n">
+        <v>202</v>
+      </c>
+      <c r="E245" t="n">
+        <v>202</v>
+      </c>
+      <c r="F245" t="n">
+        <v>7.272277227722772</v>
+      </c>
+      <c r="G245" t="n">
+        <v>198.9333333333333</v>
+      </c>
+      <c r="H245" t="n">
+        <v>199.8166666666667</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest ICX.xlsx
+++ b/BackTest/2019-10-28 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N303"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>687.1705706859084</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>1108.546370685908</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="J3" t="n">
         <v>178</v>
       </c>
-      <c r="K3" t="n">
-        <v>178</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>2288.579370685909</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
-      </c>
-      <c r="K4" t="n">
         <v>178</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>2288.579370685909</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J5" t="n">
-        <v>181</v>
-      </c>
-      <c r="K5" t="n">
         <v>178</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>20599.43097068591</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J6" t="n">
-        <v>181</v>
-      </c>
-      <c r="K6" t="n">
         <v>178</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>29984.00597068591</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="J7" t="n">
-        <v>182</v>
-      </c>
-      <c r="K7" t="n">
         <v>178</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>41337.30227068591</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J8" t="n">
-        <v>184</v>
-      </c>
-      <c r="K8" t="n">
         <v>178</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,21 @@
         <v>66000.06547068592</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>185</v>
-      </c>
-      <c r="K9" t="n">
         <v>178</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -798,22 +767,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>178</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,22 +806,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>178</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -882,22 +845,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>178</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,22 +884,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>178</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -966,22 +923,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>178</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1008,22 +962,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>178</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1050,22 +1001,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>178</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1092,22 +1040,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>178</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1134,22 +1079,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>178</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1176,22 +1118,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>178</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1218,22 +1157,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>178</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1260,22 +1196,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>178</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1302,22 +1235,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>178</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1344,22 +1274,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>178</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1386,22 +1313,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>178</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1428,22 +1352,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>178</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1470,22 +1391,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>178</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1512,22 +1430,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>178</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1554,22 +1469,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>178</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1596,22 +1508,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>178</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1638,22 +1547,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>178</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1680,22 +1586,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>178</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1722,22 +1625,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>178</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1764,22 +1664,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>178</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1806,22 +1703,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>178</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1848,22 +1742,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>178</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1890,22 +1781,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>178</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1932,22 +1820,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>178</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1974,22 +1859,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>178</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2016,22 +1898,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>178</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2058,22 +1937,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>178</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2100,22 +1976,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>178</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2142,22 +2015,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>178</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2184,22 +2054,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>178</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2226,22 +2093,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
         <v>178</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2268,22 +2132,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>178</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2310,22 +2171,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>178</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2352,22 +2210,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>178</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2394,22 +2249,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>178</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2436,22 +2288,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>178</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2478,22 +2327,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>178</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2520,22 +2366,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>178</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2562,22 +2405,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>178</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2604,22 +2444,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>178</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2646,22 +2483,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
         <v>178</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2688,22 +2522,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
         <v>178</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2730,22 +2561,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
         <v>178</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2772,22 +2600,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
         <v>178</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2814,22 +2639,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
         <v>178</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2856,22 +2678,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
         <v>178</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2898,22 +2717,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
         <v>178</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2940,22 +2756,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>178</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2982,22 +2795,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
         <v>178</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3024,22 +2834,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
         <v>178</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3066,22 +2873,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
         <v>178</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3108,22 +2912,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
         <v>178</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3150,22 +2951,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
         <v>178</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3192,22 +2990,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
         <v>178</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3234,22 +3029,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
         <v>178</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3276,22 +3068,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
         <v>178</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3318,22 +3107,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
         <v>178</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3360,22 +3146,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>178</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3402,22 +3185,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
         <v>178</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3444,22 +3224,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
         <v>178</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3486,22 +3263,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
         <v>178</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3528,22 +3302,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>178</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3570,22 +3341,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
         <v>178</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3612,22 +3380,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
         <v>178</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3652,24 +3417,23 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
         <v>178</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L78" t="n">
+        <v>1.084887640449438</v>
+      </c>
       <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>1.01685393258427</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3694,24 +3458,15 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>178</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3736,24 +3491,15 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>178</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3778,24 +3524,15 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>178</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3820,24 +3557,15 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>178</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3862,24 +3590,15 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>178</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3904,24 +3623,15 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>178</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3946,24 +3656,15 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>178</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3988,24 +3689,15 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>178</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4030,24 +3722,15 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>178</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4072,24 +3755,15 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>178</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4114,24 +3788,15 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>178</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4156,24 +3821,15 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>178</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4198,24 +3854,15 @@
         <v>59763.65952899837</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>178</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4240,26 +3887,15 @@
         <v>59747.91212899837</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>178</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1.090505617977528</v>
-      </c>
-      <c r="N92" t="n">
-        <v>1.01685393258427</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4284,18 +3920,15 @@
         <v>59203.41652899836</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4320,18 +3953,15 @@
         <v>59247.41652899836</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4356,18 +3986,15 @@
         <v>53734.44302899836</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4392,18 +4019,15 @@
         <v>53734.44302899836</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4428,18 +4052,15 @@
         <v>54278.93862899837</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4464,18 +4085,15 @@
         <v>54866.24492899836</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4500,18 +4118,15 @@
         <v>54862.24492899836</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4536,18 +4151,15 @@
         <v>54812.22802899836</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4572,18 +4184,15 @@
         <v>54812.22802899836</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4608,18 +4217,15 @@
         <v>54817.22802899836</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4644,18 +4250,15 @@
         <v>55762.96882899836</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4680,18 +4283,15 @@
         <v>54152.52452899836</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4716,18 +4316,15 @@
         <v>39007.99282899836</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4752,18 +4349,15 @@
         <v>39438.25382899836</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4788,18 +4382,15 @@
         <v>41497.01432899835</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4824,18 +4415,15 @@
         <v>40499.51432899835</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4860,18 +4448,15 @@
         <v>40509.51432899835</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4898,16 +4483,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4934,16 +4516,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4970,16 +4549,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5006,16 +4582,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5042,16 +4615,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5078,16 +4648,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5114,16 +4681,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5150,16 +4714,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5186,16 +4747,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5222,16 +4780,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5258,16 +4813,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5294,16 +4846,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5330,16 +4879,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5366,16 +4912,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5402,16 +4945,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5438,16 +4978,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5474,16 +5011,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5510,16 +5044,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5546,16 +5077,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5582,16 +5110,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5618,16 +5143,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5654,16 +5176,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5690,16 +5209,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5726,16 +5242,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5762,16 +5275,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5798,16 +5308,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5834,16 +5341,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5870,16 +5374,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5906,16 +5407,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5942,16 +5440,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5978,16 +5473,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6014,16 +5506,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6050,16 +5539,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6086,16 +5572,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6122,16 +5605,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6158,16 +5638,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6194,16 +5671,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6230,16 +5704,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6266,16 +5737,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6302,16 +5770,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6338,16 +5803,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6374,16 +5836,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6410,16 +5869,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6446,16 +5902,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6482,16 +5935,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6518,16 +5968,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6554,16 +6001,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6590,16 +6034,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6626,16 +6067,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6662,16 +6100,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6698,16 +6133,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6734,16 +6166,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6770,16 +6199,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6806,16 +6232,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6842,16 +6265,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6878,16 +6298,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6914,16 +6331,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6950,16 +6364,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6986,16 +6397,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7022,16 +6430,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7058,16 +6463,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7094,16 +6496,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7130,16 +6529,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7166,16 +6562,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7202,16 +6595,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7238,16 +6628,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7274,16 +6661,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7310,16 +6694,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7346,16 +6727,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7382,16 +6760,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7418,16 +6793,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7454,16 +6826,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7490,16 +6859,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7526,16 +6892,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7562,16 +6925,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7598,16 +6958,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7634,16 +6991,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7670,16 +7024,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7706,16 +7057,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7742,16 +7090,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7778,16 +7123,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7814,16 +7156,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7850,16 +7189,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7886,16 +7222,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7922,16 +7255,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7958,16 +7288,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7994,16 +7321,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8030,16 +7354,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8066,16 +7387,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8102,16 +7420,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8138,16 +7453,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8174,16 +7486,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8210,16 +7519,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8246,16 +7552,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8282,16 +7585,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8318,16 +7618,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8354,16 +7651,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8390,16 +7684,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8426,16 +7717,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8462,16 +7750,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8496,18 +7781,15 @@
         <v>-330053.9238338515</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8532,18 +7814,15 @@
         <v>-330053.9238338515</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8568,18 +7847,15 @@
         <v>-330051.9947338515</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8604,18 +7880,15 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8640,18 +7913,15 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8676,18 +7946,15 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8712,18 +7979,15 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8748,18 +8012,15 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8784,18 +8045,15 @@
         <v>-303821.5959338514</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8820,18 +8078,15 @@
         <v>-303756.4760338514</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8856,18 +8111,15 @@
         <v>-303756.4760338514</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8892,18 +8144,15 @@
         <v>-345900.6258338515</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8928,18 +8177,15 @@
         <v>-345900.6258338515</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8964,18 +8210,15 @@
         <v>-351377.5822338515</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9002,16 +8245,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9038,16 +8278,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9074,16 +8311,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9110,16 +8344,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9146,16 +8377,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9182,16 +8410,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9218,16 +8443,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9254,16 +8476,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9290,16 +8509,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9326,16 +8542,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9362,16 +8575,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9398,16 +8608,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9434,16 +8641,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9470,16 +8674,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9506,16 +8707,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9542,16 +8740,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9578,16 +8773,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9614,16 +8806,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9650,16 +8839,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9686,16 +8872,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9722,16 +8905,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9756,18 +8936,15 @@
         <v>-279525.9173436553</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9794,16 +8971,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9830,16 +9004,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>1</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9866,16 +9037,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>1</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9902,16 +9070,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9938,16 +9103,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9974,16 +9136,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10010,16 +9169,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10046,16 +9202,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10082,16 +9235,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10118,16 +9268,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10154,16 +9301,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10190,16 +9334,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10224,18 +9365,15 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10262,16 +9400,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10298,16 +9433,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10334,16 +9466,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10370,16 +9499,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10406,16 +9532,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10442,16 +9565,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10478,16 +9598,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10512,18 +9629,15 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10550,16 +9664,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10586,16 +9697,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10622,16 +9730,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10658,16 +9763,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10694,16 +9796,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10730,16 +9829,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10766,16 +9862,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10802,16 +9895,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10836,18 +9926,15 @@
         <v>-268878.6180436554</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10872,18 +9959,15 @@
         <v>-268711.6180436554</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10908,18 +9992,15 @@
         <v>-268718.5928436554</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10946,16 +10027,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10980,18 +10058,15 @@
         <v>-251187.6457606554</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11018,16 +10093,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11052,18 +10124,15 @@
         <v>-268165.7827606554</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11088,18 +10157,15 @@
         <v>-289718.5196606554</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11124,18 +10190,15 @@
         <v>-274643.1427762333</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11160,18 +10223,15 @@
         <v>-275444.0177762333</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11196,18 +10256,15 @@
         <v>-275393.5127257283</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11232,18 +10289,15 @@
         <v>-275453.5127257283</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11268,18 +10322,15 @@
         <v>-275403.2614694469</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11304,18 +10355,15 @@
         <v>-264493.7010362283</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11340,18 +10388,15 @@
         <v>-264563.7010362283</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11378,16 +10423,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11412,18 +10454,15 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11448,18 +10487,15 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11484,18 +10520,15 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11520,18 +10553,15 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11556,18 +10586,15 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11592,18 +10619,15 @@
         <v>-280438.8198362283</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11628,18 +10652,15 @@
         <v>-280436.7005362283</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11664,18 +10685,15 @@
         <v>-282539.6017362283</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11702,16 +10720,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11738,16 +10753,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11774,16 +10786,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11810,16 +10819,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11846,18 +10852,15 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ICX.xlsx
+++ b/BackTest/2019-10-28 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>687.1705706859084</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1108.546370685908</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>178</v>
@@ -521,7 +521,7 @@
         <v>2288.579370685909</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>180</v>
@@ -562,7 +562,7 @@
         <v>2288.579370685909</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>181</v>
@@ -603,7 +603,7 @@
         <v>20599.43097068591</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>181</v>
@@ -644,7 +644,7 @@
         <v>29984.00597068591</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>182</v>
@@ -685,11 +685,9 @@
         <v>41337.30227068591</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>178</v>
       </c>
@@ -3417,7 +3415,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
@@ -3425,15 +3423,13 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.084887640449438</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.01685393258427</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3458,11 +3454,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>178</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3491,11 +3493,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>178</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3532,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>178</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3557,11 +3571,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>178</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3590,11 +3610,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>178</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3623,11 +3649,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>178</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3656,11 +3688,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>178</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3689,11 +3727,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>178</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3722,11 +3766,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>178</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3755,11 +3805,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>178</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3788,11 +3844,17 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>178</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3821,11 +3883,17 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>178</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3854,11 +3922,17 @@
         <v>59763.65952899837</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>178</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3887,11 +3961,17 @@
         <v>59747.91212899837</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>178</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3920,11 +4000,17 @@
         <v>59203.41652899836</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>178</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3953,11 +4039,17 @@
         <v>59247.41652899836</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>178</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3986,11 +4078,17 @@
         <v>53734.44302899836</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>178</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +4117,17 @@
         <v>53734.44302899836</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>178</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4052,11 +4156,17 @@
         <v>54278.93862899837</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>178</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4085,11 +4195,17 @@
         <v>54866.24492899836</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>178</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4118,11 +4234,17 @@
         <v>54862.24492899836</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>178</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4151,11 +4273,17 @@
         <v>54812.22802899836</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>178</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4184,11 +4312,17 @@
         <v>54812.22802899836</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>178</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4217,11 +4351,17 @@
         <v>54817.22802899836</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>178</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4250,11 +4390,17 @@
         <v>55762.96882899836</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>178</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4283,11 +4429,17 @@
         <v>54152.52452899836</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>178</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4316,11 +4468,17 @@
         <v>39007.99282899836</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>178</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4349,11 +4507,17 @@
         <v>39438.25382899836</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>178</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4382,11 +4546,17 @@
         <v>41497.01432899835</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>178</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4415,11 +4585,17 @@
         <v>40499.51432899835</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>178</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4448,11 +4624,17 @@
         <v>40509.51432899835</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>178</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4484,8 +4666,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>178</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4517,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>178</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4550,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>178</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4583,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>178</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4616,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>178</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4649,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>178</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4682,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>178</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4715,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>178</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4748,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>178</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4778,15 +5014,23 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>178</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>1.062415730337079</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.01685393258427</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4811,7 +5055,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4844,7 +5088,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4877,7 +5121,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4943,7 +5187,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4976,7 +5220,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5009,7 +5253,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5042,7 +5286,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5075,7 +5319,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5108,7 +5352,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5141,7 +5385,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5174,7 +5418,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5207,7 +5451,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5240,7 +5484,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5273,7 +5517,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5306,7 +5550,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5339,7 +5583,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5372,7 +5616,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5405,7 +5649,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5438,7 +5682,7 @@
         <v>-2674327.933471002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5471,7 +5715,7 @@
         <v>-2674327.933471002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -7781,7 +8025,7 @@
         <v>-330053.9238338515</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7814,7 +8058,7 @@
         <v>-330053.9238338515</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7847,7 +8091,7 @@
         <v>-330051.9947338515</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7880,7 +8124,7 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7913,7 +8157,7 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7946,7 +8190,7 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7979,7 +8223,7 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8012,7 +8256,7 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8045,7 +8289,7 @@
         <v>-303821.5959338514</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8078,7 +8322,7 @@
         <v>-303756.4760338514</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8111,7 +8355,7 @@
         <v>-303756.4760338514</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8144,7 +8388,7 @@
         <v>-345900.6258338515</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8177,7 +8421,7 @@
         <v>-345900.6258338515</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8210,7 +8454,7 @@
         <v>-351377.5822338515</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8243,7 +8487,7 @@
         <v>-349742.0572338515</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8276,7 +8520,7 @@
         <v>-354075.3443338515</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8309,7 +8553,7 @@
         <v>-353544.5902338515</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8342,7 +8586,7 @@
         <v>-353650.9732338514</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8408,7 +8652,7 @@
         <v>-347688.6532338514</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8441,7 +8685,7 @@
         <v>-346098.6790338514</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8507,7 +8751,7 @@
         <v>-354678.6415338514</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8540,7 +8784,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8573,7 +8817,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8606,7 +8850,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8639,7 +8883,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8672,7 +8916,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8705,7 +8949,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8738,7 +8982,7 @@
         <v>-351906.929810322</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8771,7 +9015,7 @@
         <v>-278681.764010322</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8804,7 +9048,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8837,7 +9081,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8870,7 +9114,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8903,7 +9147,7 @@
         <v>-278463.5973436553</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8936,7 +9180,7 @@
         <v>-279525.9173436553</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9134,7 +9378,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9167,7 +9411,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9200,7 +9444,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9233,7 +9477,7 @@
         <v>-280234.0952436553</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9266,7 +9510,7 @@
         <v>-280363.0510436553</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9299,7 +9543,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9332,7 +9576,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9365,7 +9609,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9398,7 +9642,7 @@
         <v>-274909.9634436553</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9431,7 +9675,7 @@
         <v>-275240.5317436553</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9464,7 +9708,7 @@
         <v>-275240.5317436553</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9497,7 +9741,7 @@
         <v>-268719.6934436553</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9530,7 +9774,7 @@
         <v>-273432.2562436553</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9563,7 +9807,7 @@
         <v>-268572.5550436553</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9596,7 +9840,7 @@
         <v>-268672.5550436553</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9629,7 +9873,7 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9662,7 +9906,7 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9695,7 +9939,7 @@
         <v>-268464.6240436553</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9827,7 +10071,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9893,7 +10137,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9926,7 +10170,7 @@
         <v>-268878.6180436554</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9959,7 +10203,7 @@
         <v>-268711.6180436554</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9992,7 +10236,7 @@
         <v>-268718.5928436554</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10025,7 +10269,7 @@
         <v>-272905.5131436554</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10058,7 +10302,7 @@
         <v>-251187.6457606554</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10091,7 +10335,7 @@
         <v>-256239.1507606554</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10124,7 +10368,7 @@
         <v>-268165.7827606554</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10157,7 +10401,7 @@
         <v>-289718.5196606554</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10190,7 +10434,7 @@
         <v>-274643.1427762333</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10223,7 +10467,7 @@
         <v>-275444.0177762333</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10256,7 +10500,7 @@
         <v>-275393.5127257283</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10289,7 +10533,7 @@
         <v>-275453.5127257283</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10322,7 +10566,7 @@
         <v>-275403.2614694469</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10355,7 +10599,7 @@
         <v>-264493.7010362283</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10388,7 +10632,7 @@
         <v>-264563.7010362283</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10454,7 +10698,7 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10487,7 +10731,7 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10520,7 +10764,7 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10553,7 +10797,7 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10586,7 +10830,7 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10619,7 +10863,7 @@
         <v>-280438.8198362283</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10652,7 +10896,7 @@
         <v>-280436.7005362283</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10685,7 +10929,7 @@
         <v>-282539.6017362283</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10784,7 +11028,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10817,7 +11061,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10850,7 +11094,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10861,6 +11105,6 @@
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ICX.xlsx
+++ b/BackTest/2019-10-28 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -603,19 +603,11 @@
         <v>20599.43097068591</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>181</v>
-      </c>
-      <c r="J6" t="n">
-        <v>178</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +636,11 @@
         <v>29984.00597068591</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>182</v>
-      </c>
-      <c r="J7" t="n">
-        <v>178</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -688,14 +672,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>178</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -727,14 +705,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>178</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -766,14 +738,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>178</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -805,14 +771,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>178</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,17 +801,11 @@
         <v>69177.51487068592</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>178</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -880,17 +834,11 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>178</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,17 +867,11 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>178</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -958,17 +900,11 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>178</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -997,17 +933,11 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>178</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1036,17 +966,11 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>178</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1075,17 +999,11 @@
         <v>64908.09047068591</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>178</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1114,17 +1032,11 @@
         <v>65488.62187068591</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>178</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1153,17 +1065,11 @@
         <v>54438.98307068591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>178</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1192,17 +1098,11 @@
         <v>54716.73997068591</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>178</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1231,17 +1131,11 @@
         <v>54311.73997068591</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>178</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1270,17 +1164,11 @@
         <v>54301.73997068591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>178</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1309,17 +1197,11 @@
         <v>54301.73997068591</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>178</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1351,14 +1233,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>178</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1390,14 +1266,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>178</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1429,14 +1299,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>178</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1465,17 +1329,11 @@
         <v>54756.44277068591</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>178</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1504,17 +1362,11 @@
         <v>56732.68407068591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>178</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1546,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>178</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1582,17 +1428,11 @@
         <v>57271.04907068591</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>178</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1621,17 +1461,11 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>178</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1660,17 +1494,11 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>178</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1699,17 +1527,11 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>178</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1738,17 +1560,11 @@
         <v>54179.58047068591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>178</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1777,17 +1593,11 @@
         <v>52962.55237068591</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>178</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1816,17 +1626,11 @@
         <v>53057.55237068591</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>178</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1855,17 +1659,11 @@
         <v>53057.55237068591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>178</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1894,17 +1692,11 @@
         <v>52064.30797068591</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>178</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1933,17 +1725,11 @@
         <v>52164.30797068591</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>178</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1972,17 +1758,11 @@
         <v>52112.30797068591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>178</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2011,17 +1791,11 @@
         <v>52112.30797068591</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>178</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2050,17 +1824,11 @@
         <v>50714.11617068591</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>178</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2089,17 +1857,11 @@
         <v>50722.05267068591</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>178</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2128,17 +1890,11 @@
         <v>50722.05267068591</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>178</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2167,17 +1923,11 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>178</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2206,17 +1956,11 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>178</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2245,17 +1989,11 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>178</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2284,17 +2022,11 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>178</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2323,17 +2055,11 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>178</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2362,17 +2088,11 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>178</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2401,17 +2121,11 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>178</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2440,17 +2154,11 @@
         <v>46483.43135005099</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>178</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2479,17 +2187,11 @@
         <v>46483.43135005099</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>178</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2518,17 +2220,11 @@
         <v>49163.43135005099</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>178</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2557,17 +2253,11 @@
         <v>49216.06292899836</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>178</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2599,14 +2289,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>178</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2638,14 +2322,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>178</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2677,14 +2355,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>178</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2716,14 +2388,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>178</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2755,14 +2421,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>178</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2794,14 +2454,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>178</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2833,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>178</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2872,14 +2520,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>178</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2911,14 +2553,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>178</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2950,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>178</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2989,14 +2619,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>178</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3028,14 +2652,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>178</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3064,17 +2682,11 @@
         <v>63540.61922899836</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>178</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3103,17 +2715,11 @@
         <v>63540.61922899836</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>178</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3142,17 +2748,11 @@
         <v>63553.23372899836</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>178</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3181,17 +2781,11 @@
         <v>58983.00952899837</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>178</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3220,17 +2814,11 @@
         <v>49342.16332899837</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>178</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3259,17 +2847,11 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>178</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3298,17 +2880,11 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>178</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3337,17 +2913,11 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>178</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3376,17 +2946,11 @@
         <v>55217.35472899837</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>178</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3415,17 +2979,11 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>178</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3454,17 +3012,11 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>178</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3493,17 +3045,11 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>178</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3532,17 +3078,11 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>178</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3571,17 +3111,11 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>178</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3610,17 +3144,11 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>178</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3649,17 +3177,11 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>178</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3688,17 +3210,11 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>178</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3727,17 +3243,11 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>178</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3766,17 +3276,11 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>178</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3808,14 +3312,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>178</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3844,17 +3342,11 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>178</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3883,17 +3375,11 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>178</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3922,17 +3408,11 @@
         <v>59763.65952899837</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>178</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3961,17 +3441,11 @@
         <v>59747.91212899837</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>178</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4003,14 +3477,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>178</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4042,14 +3510,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>178</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4081,14 +3543,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>178</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4120,14 +3576,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>178</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4159,14 +3609,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>178</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4198,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>178</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4237,14 +3675,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>178</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4276,14 +3708,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>178</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4315,14 +3741,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>178</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4354,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>178</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4393,14 +3807,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>178</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4432,14 +3840,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>178</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4471,14 +3873,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>178</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4510,14 +3906,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>178</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4549,14 +3939,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>178</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4588,14 +3972,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>178</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4627,14 +4005,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>178</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4666,14 +4038,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>178</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4705,14 +4071,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>178</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4744,14 +4104,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>178</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4783,14 +4137,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>178</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4822,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>178</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4861,14 +4203,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>178</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4900,14 +4236,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>178</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4939,14 +4269,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>178</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4978,14 +4302,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>178</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5014,23 +4332,15 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>178</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.062415730337079</v>
-      </c>
-      <c r="M119" t="n">
-        <v>1.01685393258427</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5055,7 +4365,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5088,7 +4398,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5121,7 +4431,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5187,7 +4497,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5220,7 +4530,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5253,7 +4563,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5286,7 +4596,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5319,7 +4629,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5352,7 +4662,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5385,7 +4695,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5418,7 +4728,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5451,7 +4761,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5484,7 +4794,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5517,7 +4827,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5550,7 +4860,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5583,7 +4893,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5616,7 +4926,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5649,7 +4959,7 @@
         <v>-458994.7154710017</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5682,7 +4992,7 @@
         <v>-2674327.933471002</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5715,7 +5025,7 @@
         <v>-2674327.933471002</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6837,7 +6147,7 @@
         <v>-488657.4667710019</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -8025,7 +7335,7 @@
         <v>-330053.9238338515</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8091,7 +7401,7 @@
         <v>-330051.9947338515</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8124,7 +7434,7 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8157,7 +7467,7 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8190,7 +7500,7 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8223,7 +7533,7 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8256,7 +7566,7 @@
         <v>-301492.5787338514</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8289,7 +7599,7 @@
         <v>-303821.5959338514</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8322,7 +7632,7 @@
         <v>-303756.4760338514</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8355,7 +7665,7 @@
         <v>-303756.4760338514</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8388,7 +7698,7 @@
         <v>-345900.6258338515</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8421,7 +7731,7 @@
         <v>-345900.6258338515</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8454,7 +7764,7 @@
         <v>-351377.5822338515</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8487,7 +7797,7 @@
         <v>-349742.0572338515</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8520,7 +7830,7 @@
         <v>-354075.3443338515</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8553,7 +7863,7 @@
         <v>-353544.5902338515</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8586,7 +7896,7 @@
         <v>-353650.9732338514</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8652,7 +7962,7 @@
         <v>-347688.6532338514</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8685,7 +7995,7 @@
         <v>-346098.6790338514</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8751,7 +8061,7 @@
         <v>-354678.6415338514</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8784,7 +8094,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8817,7 +8127,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8850,7 +8160,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8883,7 +8193,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8916,7 +8226,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8949,7 +8259,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8982,7 +8292,7 @@
         <v>-351906.929810322</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9015,7 +8325,7 @@
         <v>-278681.764010322</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9048,7 +8358,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9081,7 +8391,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9114,7 +8424,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9147,7 +8457,7 @@
         <v>-278463.5973436553</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9378,7 +8688,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9411,7 +8721,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9444,7 +8754,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9477,7 +8787,7 @@
         <v>-280234.0952436553</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9510,7 +8820,7 @@
         <v>-280363.0510436553</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9543,7 +8853,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9576,7 +8886,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9609,7 +8919,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9642,7 +8952,7 @@
         <v>-274909.9634436553</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9675,7 +8985,7 @@
         <v>-275240.5317436553</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9708,7 +9018,7 @@
         <v>-275240.5317436553</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9741,7 +9051,7 @@
         <v>-268719.6934436553</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9774,7 +9084,7 @@
         <v>-273432.2562436553</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9807,7 +9117,7 @@
         <v>-268572.5550436553</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9840,7 +9150,7 @@
         <v>-268672.5550436553</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9873,7 +9183,7 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9906,7 +9216,7 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9939,7 +9249,7 @@
         <v>-268464.6240436553</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10071,7 +9381,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10137,7 +9447,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10170,7 +9480,7 @@
         <v>-268878.6180436554</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10203,7 +9513,7 @@
         <v>-268711.6180436554</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10236,7 +9546,7 @@
         <v>-268718.5928436554</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10269,7 +9579,7 @@
         <v>-272905.5131436554</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10302,7 +9612,7 @@
         <v>-251187.6457606554</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10335,7 +9645,7 @@
         <v>-256239.1507606554</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10368,7 +9678,7 @@
         <v>-268165.7827606554</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10401,7 +9711,7 @@
         <v>-289718.5196606554</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10434,7 +9744,7 @@
         <v>-274643.1427762333</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10467,7 +9777,7 @@
         <v>-275444.0177762333</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10500,7 +9810,7 @@
         <v>-275393.5127257283</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10533,7 +9843,7 @@
         <v>-275453.5127257283</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10566,7 +9876,7 @@
         <v>-275403.2614694469</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10599,7 +9909,7 @@
         <v>-264493.7010362283</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10632,7 +9942,7 @@
         <v>-264563.7010362283</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10698,7 +10008,7 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10731,7 +10041,7 @@
         <v>-275347.9875362283</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11028,7 +10338,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11061,7 +10371,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11094,7 +10404,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11105,6 +10415,6 @@
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest ICX.xlsx
+++ b/BackTest/2019-10-28 BackTest ICX.xlsx
@@ -603,11 +603,19 @@
         <v>20599.43097068591</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>181</v>
+      </c>
+      <c r="J6" t="n">
+        <v>178</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,11 +644,19 @@
         <v>29984.00597068591</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>182</v>
+      </c>
+      <c r="J7" t="n">
+        <v>178</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,11 +685,19 @@
         <v>41337.30227068591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>184</v>
+      </c>
+      <c r="J8" t="n">
+        <v>178</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -702,11 +726,19 @@
         <v>66000.06547068592</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>185</v>
+      </c>
+      <c r="J9" t="n">
+        <v>178</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -735,11 +767,19 @@
         <v>66000.06547068592</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>188</v>
+      </c>
+      <c r="J10" t="n">
+        <v>178</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -768,11 +808,19 @@
         <v>66000.06547068592</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>188</v>
+      </c>
+      <c r="J11" t="n">
+        <v>178</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -801,11 +849,19 @@
         <v>69177.51487068592</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>188</v>
+      </c>
+      <c r="J12" t="n">
+        <v>178</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -834,11 +890,19 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>189</v>
+      </c>
+      <c r="J13" t="n">
+        <v>178</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -867,11 +931,17 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>178</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -900,11 +970,17 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>178</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -933,11 +1009,17 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>178</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -966,11 +1048,17 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>178</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -999,11 +1087,19 @@
         <v>64908.09047068591</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>190</v>
+      </c>
+      <c r="J18" t="n">
+        <v>178</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1032,11 +1128,19 @@
         <v>65488.62187068591</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>187</v>
+      </c>
+      <c r="J19" t="n">
+        <v>178</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1065,11 +1169,17 @@
         <v>54438.98307068591</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>178</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1098,11 +1208,17 @@
         <v>54716.73997068591</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>178</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1131,11 +1247,17 @@
         <v>54311.73997068591</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>178</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1164,11 +1286,17 @@
         <v>54301.73997068591</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>178</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1197,11 +1325,19 @@
         <v>54301.73997068591</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>185</v>
+      </c>
+      <c r="J24" t="n">
+        <v>178</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1366,19 @@
         <v>54766.73997068591</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>185</v>
+      </c>
+      <c r="J25" t="n">
+        <v>178</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1263,11 +1407,19 @@
         <v>54766.73997068591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>186</v>
+      </c>
+      <c r="J26" t="n">
+        <v>178</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1299,8 +1451,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>178</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1329,11 +1487,19 @@
         <v>54756.44277068591</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>186</v>
+      </c>
+      <c r="J28" t="n">
+        <v>178</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1362,11 +1528,17 @@
         <v>56732.68407068591</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>178</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1398,8 +1570,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>178</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1428,11 +1606,17 @@
         <v>57271.04907068591</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>178</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1461,11 +1645,17 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>178</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1494,11 +1684,17 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>178</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1527,11 +1723,17 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>178</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1560,11 +1762,17 @@
         <v>54179.58047068591</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>178</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1593,11 +1801,17 @@
         <v>52962.55237068591</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>178</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1626,11 +1840,17 @@
         <v>53057.55237068591</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>178</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1659,11 +1879,17 @@
         <v>53057.55237068591</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>178</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1692,11 +1918,17 @@
         <v>52064.30797068591</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>178</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1725,11 +1957,17 @@
         <v>52164.30797068591</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>178</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1758,11 +1996,17 @@
         <v>52112.30797068591</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>178</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1791,11 +2035,17 @@
         <v>52112.30797068591</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>178</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,11 +2074,17 @@
         <v>50714.11617068591</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>178</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1857,11 +2113,17 @@
         <v>50722.05267068591</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>178</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1890,11 +2152,17 @@
         <v>50722.05267068591</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>178</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1923,11 +2191,17 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>178</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1956,11 +2230,17 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>178</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1989,11 +2269,17 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>178</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2022,11 +2308,17 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>178</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2055,11 +2347,17 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>178</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2088,11 +2386,17 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>178</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2121,11 +2425,17 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>178</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2154,11 +2464,17 @@
         <v>46483.43135005099</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>178</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2187,11 +2503,17 @@
         <v>46483.43135005099</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>178</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2220,11 +2542,17 @@
         <v>49163.43135005099</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>178</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2253,11 +2581,17 @@
         <v>49216.06292899836</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>178</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2289,8 +2623,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>178</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2322,8 +2662,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>178</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2355,8 +2701,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>178</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2388,8 +2740,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>178</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2421,8 +2779,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>178</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2454,8 +2818,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>178</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2857,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>178</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2520,8 +2896,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>178</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2553,8 +2935,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>178</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2586,8 +2974,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>178</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2619,8 +3013,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>178</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2652,8 +3052,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>178</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,11 +3088,17 @@
         <v>63540.61922899836</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>178</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,11 +3127,17 @@
         <v>63540.61922899836</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>178</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,11 +3166,17 @@
         <v>63553.23372899836</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>178</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,11 +3205,17 @@
         <v>58983.00952899837</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>178</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2814,11 +3244,17 @@
         <v>49342.16332899837</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>178</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2847,11 +3283,17 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>178</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2880,11 +3322,17 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>178</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2913,11 +3361,17 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>178</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2946,11 +3400,17 @@
         <v>55217.35472899837</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>178</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2979,11 +3439,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>178</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3012,11 +3478,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>178</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3045,11 +3517,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>178</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3078,11 +3556,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>178</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3111,11 +3595,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>178</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3144,11 +3634,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>178</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3177,11 +3673,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>178</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3210,11 +3712,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>178</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3243,11 +3751,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>178</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3276,11 +3790,17 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>178</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3312,8 +3832,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>178</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,11 +3868,17 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>178</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3375,11 +3907,17 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>178</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3408,11 +3946,17 @@
         <v>59763.65952899837</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>178</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3985,17 @@
         <v>59747.91212899837</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>178</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3477,8 +4027,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>178</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3510,8 +4066,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>178</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3543,8 +4105,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>178</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3576,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>178</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3609,8 +4183,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>178</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3642,8 +4222,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>178</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3675,8 +4261,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>178</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3708,8 +4300,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>178</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3741,8 +4339,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>178</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3774,8 +4378,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>178</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3807,8 +4417,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>178</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3840,8 +4456,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>178</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3873,8 +4495,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>178</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3906,8 +4534,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>178</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3939,8 +4573,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>178</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3972,8 +4612,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>178</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4005,8 +4651,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>178</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4038,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>178</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4071,8 +4729,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>178</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4104,8 +4768,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>178</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4137,8 +4807,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>178</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4170,8 +4846,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>178</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4203,8 +4885,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>178</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4236,8 +4924,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>178</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4269,8 +4963,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>178</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4302,8 +5002,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>178</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4335,8 +5041,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>178</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4368,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>178</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4401,8 +5119,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>178</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4434,8 +5158,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>178</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4467,8 +5197,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>178</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4500,8 +5236,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>178</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4533,8 +5275,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>178</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4566,8 +5314,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>178</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4599,8 +5353,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>178</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4632,8 +5392,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>178</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4665,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>178</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4698,8 +5470,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>178</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4731,8 +5509,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>178</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4764,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>178</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +5587,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>178</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4830,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>178</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4863,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>178</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4896,8 +5704,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>178</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4929,8 +5743,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>178</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4962,8 +5782,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>178</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4995,8 +5821,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>178</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5028,8 +5860,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>178</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5061,8 +5899,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>178</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5094,8 +5938,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>178</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5127,8 +5977,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>178</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5157,11 +6013,19 @@
         <v>-2187045.933471002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>190</v>
+      </c>
+      <c r="J144" t="n">
+        <v>178</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5193,8 +6057,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>178</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5223,11 +6093,19 @@
         <v>-1214701.001671002</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>190</v>
+      </c>
+      <c r="J146" t="n">
+        <v>178</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5256,11 +6134,19 @@
         <v>-1214701.001671002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>191</v>
+      </c>
+      <c r="J147" t="n">
+        <v>178</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5289,11 +6175,19 @@
         <v>-1214701.001671002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>191</v>
+      </c>
+      <c r="J148" t="n">
+        <v>178</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5322,11 +6216,19 @@
         <v>-1214701.001671002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>191</v>
+      </c>
+      <c r="J149" t="n">
+        <v>178</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5355,11 +6257,19 @@
         <v>-1214701.001671002</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>191</v>
+      </c>
+      <c r="J150" t="n">
+        <v>178</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5391,8 +6301,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>178</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5421,11 +6337,19 @@
         <v>-2126767.001671002</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>190</v>
+      </c>
+      <c r="J152" t="n">
+        <v>178</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5457,8 +6381,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>178</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5490,8 +6420,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>178</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5523,8 +6459,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>178</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5556,8 +6498,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>178</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5589,8 +6537,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>178</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5622,8 +6576,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>178</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5652,11 +6612,19 @@
         <v>-452976.2265710018</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>191</v>
+      </c>
+      <c r="J159" t="n">
+        <v>178</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5688,8 +6656,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>178</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5718,11 +6692,19 @@
         <v>-452973.7305710018</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>191</v>
+      </c>
+      <c r="J161" t="n">
+        <v>178</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5754,8 +6736,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>178</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5787,8 +6775,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>178</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5820,8 +6814,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>178</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5853,8 +6853,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>178</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5886,8 +6892,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>178</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5919,8 +6931,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>178</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +6970,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>178</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5985,8 +7009,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>178</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6018,8 +7048,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>178</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6051,8 +7087,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>178</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6084,8 +7126,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>178</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6117,8 +7165,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>178</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6147,11 +7201,17 @@
         <v>-488657.4667710019</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>178</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6183,8 +7243,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>178</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6216,8 +7282,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>178</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6249,8 +7321,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>178</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6282,8 +7360,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>178</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6315,8 +7399,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>178</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6348,8 +7438,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>178</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6381,8 +7477,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>178</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6414,8 +7516,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>178</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6447,8 +7555,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>178</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6480,8 +7594,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>178</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6513,8 +7633,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>178</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6546,8 +7672,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>178</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6579,8 +7711,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>178</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6612,8 +7750,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>178</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6645,8 +7789,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>178</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6678,8 +7828,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>178</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6711,8 +7867,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>178</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6744,8 +7906,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>178</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6777,8 +7945,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>178</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6810,8 +7984,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>178</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6843,8 +8023,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>178</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6876,8 +8062,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>178</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6909,8 +8101,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>178</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6942,8 +8140,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>178</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6975,8 +8179,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>178</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7008,8 +8218,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>178</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7041,8 +8257,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>178</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7074,8 +8296,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>178</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +8335,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>178</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7140,8 +8374,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>178</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7173,8 +8413,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>178</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7206,8 +8452,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>178</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7239,8 +8491,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>178</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7272,8 +8530,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>178</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7305,8 +8569,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>178</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7338,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>178</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7371,8 +8647,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>178</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7404,8 +8686,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>178</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7437,8 +8725,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>178</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7470,8 +8764,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>178</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7503,8 +8803,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>178</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7536,8 +8842,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>178</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7569,8 +8881,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>178</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7602,8 +8920,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>178</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7635,8 +8959,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>178</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7665,15 +8995,23 @@
         <v>-303756.4760338514</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>178</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>1.124213483146068</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1.01685393258427</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7698,7 +9036,7 @@
         <v>-345900.6258338515</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7929,7 +9267,7 @@
         <v>-353730.9732338514</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7995,7 +9333,7 @@
         <v>-346098.6790338514</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8028,7 +9366,7 @@
         <v>-361283.5867338514</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8061,7 +9399,7 @@
         <v>-354678.6415338514</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8127,7 +9465,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8160,7 +9498,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8193,7 +9531,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8226,7 +9564,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8259,7 +9597,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8292,7 +9630,7 @@
         <v>-351906.929810322</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8325,7 +9663,7 @@
         <v>-278681.764010322</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8358,7 +9696,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8391,7 +9729,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8424,7 +9762,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8457,7 +9795,7 @@
         <v>-278463.5973436553</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8490,7 +9828,7 @@
         <v>-279525.9173436553</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8523,7 +9861,7 @@
         <v>-279684.9416436553</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8556,7 +9894,7 @@
         <v>-279684.9416436553</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8589,7 +9927,7 @@
         <v>-280078.0541436553</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8622,7 +9960,7 @@
         <v>-280078.0541436553</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8655,7 +9993,7 @@
         <v>-279950.0541436553</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8688,7 +10026,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8721,7 +10059,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8754,7 +10092,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8787,7 +10125,7 @@
         <v>-280234.0952436553</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8820,7 +10158,7 @@
         <v>-280363.0510436553</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8853,7 +10191,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8886,7 +10224,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8919,7 +10257,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8952,7 +10290,7 @@
         <v>-274909.9634436553</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8985,7 +10323,7 @@
         <v>-275240.5317436553</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9018,7 +10356,7 @@
         <v>-275240.5317436553</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9051,7 +10389,7 @@
         <v>-268719.6934436553</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9084,7 +10422,7 @@
         <v>-273432.2562436553</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9117,7 +10455,7 @@
         <v>-268572.5550436553</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9150,7 +10488,7 @@
         <v>-268672.5550436553</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9183,7 +10521,7 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9216,7 +10554,7 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9249,7 +10587,7 @@
         <v>-268464.6240436553</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9282,7 +10620,7 @@
         <v>-268464.6240436553</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9315,7 +10653,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9348,7 +10686,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9381,7 +10719,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9414,7 +10752,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9447,7 +10785,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9480,7 +10818,7 @@
         <v>-268878.6180436554</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9513,7 +10851,7 @@
         <v>-268711.6180436554</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9546,7 +10884,7 @@
         <v>-268718.5928436554</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9579,7 +10917,7 @@
         <v>-272905.5131436554</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9942,7 +11280,7 @@
         <v>-264563.7010362283</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10371,7 +11709,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10404,7 +11742,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
